--- a/initial_claims/VA/VA_data.xlsx
+++ b/initial_claims/VA/VA_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10608"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10614"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andy/Documents/GitHub/coronavirus-unemployment/states/VA/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andy/Documents/GitHub/coronavirus-unemployment/initial_claims/VA/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{61B048B3-D6E1-0E49-87FB-408BBFFAFEE8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{30555A0F-A6AC-9A40-B151-BDF4344F5513}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="32020" windowHeight="16280" tabRatio="769" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11460" tabRatio="769" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="State totals" sheetId="7" r:id="rId1"/>
@@ -23,12 +23,12 @@
     <sheet name="Contd Claims by LWDA" sheetId="6" r:id="rId8"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'Contd by County and City'!$A$2:$O$2</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'Contd Claims by LWDA'!$A$2:$N$2</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'Continued  Claims by NAICS'!$A$2:$N$2</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Initial by County and City'!$A$2:$O$2</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Initial Claims by LWDA'!$A$2:$N$2</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'Initial Claims by NAICS'!$A$2:$N$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'Contd by County and City'!$A$2:$Q$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'Contd Claims by LWDA'!$A$2:$P$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'Continued  Claims by NAICS'!$A$2:$P$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Initial by County and City'!$A$2:$Q$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Initial Claims by LWDA'!$A$2:$P$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'Initial Claims by NAICS'!$A$2:$P$2</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Initial Claims SOC by LWDA'!$A$2:$Q$2</definedName>
     <definedName name="March_21_Over_March_14_with_STC_Query_Query" localSheetId="6">'Contd by County and City'!$A$2:$B$135</definedName>
     <definedName name="March_21_Over_March_14_with_STC_Query_Query">'Initial by County and City'!$A$2:$E$135</definedName>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="530" uniqueCount="241">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="544" uniqueCount="243">
   <si>
     <t>SOC Code</t>
   </si>
@@ -787,10 +787,16 @@
     <t>June 6 Claims</t>
   </si>
   <si>
-    <t>*Aggregate Initial Claims for March 1, 2020-June 6, 2020</t>
-  </si>
-  <si>
-    <t xml:space="preserve">n.d. </t>
+    <t>June 13 Claims</t>
+  </si>
+  <si>
+    <t>June 20 Claims</t>
+  </si>
+  <si>
+    <t>*Aggregate Initial Claims for March 1, 2020-June 20, 2020</t>
+  </si>
+  <si>
+    <t>n.d</t>
   </si>
 </sst>
 </file>
@@ -890,7 +896,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -925,7 +931,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1222,38 +1234,33 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
-    <tabColor theme="5" tint="0.79998168889431442"/>
+    <tabColor theme="4" tint="0.79998168889431442"/>
   </sheetPr>
-  <dimension ref="A1:N11"/>
+  <dimension ref="A1:P11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E40" sqref="E40"/>
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="14" customWidth="1"/>
-    <col min="2" max="4" width="15.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.1640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="8" width="14.1640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="11" max="13" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="15" width="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="19" x14ac:dyDescent="0.25">
-      <c r="A1" s="25" t="s">
+    <row r="1" spans="1:16" ht="19" x14ac:dyDescent="0.25">
+      <c r="A1" s="27" t="s">
         <v>221</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
         <v>42</v>
       </c>
@@ -1293,8 +1300,14 @@
       <c r="N2" s="1" t="s">
         <v>238</v>
       </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O2" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>222</v>
       </c>
@@ -1337,8 +1350,14 @@
       <c r="N3" s="9">
         <v>29231</v>
       </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O3" s="9">
+        <v>27186</v>
+      </c>
+      <c r="P3" s="9">
+        <v>25293</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>223</v>
       </c>
@@ -1381,8 +1400,14 @@
       <c r="N4" s="9">
         <v>396056</v>
       </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O4" s="9">
+        <v>386893</v>
+      </c>
+      <c r="P4" s="9">
+        <v>375579</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7" s="7" t="s">
         <v>48</v>
       </c>
@@ -1392,7 +1417,7 @@
       <c r="E7" s="7"/>
       <c r="F7" s="7"/>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" s="7" t="s">
         <v>50</v>
       </c>
@@ -1402,33 +1427,33 @@
       <c r="E8" s="7"/>
       <c r="F8" s="7"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A9" s="26" t="s">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A9" s="28" t="s">
         <v>224</v>
       </c>
-      <c r="B9" s="26"/>
-      <c r="C9" s="26"/>
-      <c r="D9" s="26"/>
-      <c r="E9" s="26"/>
-      <c r="F9" s="26"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A10" s="26" t="s">
+      <c r="B9" s="28"/>
+      <c r="C9" s="28"/>
+      <c r="D9" s="28"/>
+      <c r="E9" s="28"/>
+      <c r="F9" s="28"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A10" s="28" t="s">
         <v>185</v>
       </c>
-      <c r="B10" s="26"/>
-      <c r="C10" s="26"/>
-      <c r="D10" s="26"/>
-      <c r="E10" s="26"/>
-      <c r="F10" s="26"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A11" s="26"/>
-      <c r="B11" s="26"/>
-      <c r="C11" s="26"/>
-      <c r="D11" s="26"/>
-      <c r="E11" s="26"/>
-      <c r="F11" s="26"/>
+      <c r="B10" s="28"/>
+      <c r="C10" s="28"/>
+      <c r="D10" s="28"/>
+      <c r="E10" s="28"/>
+      <c r="F10" s="28"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A11" s="28"/>
+      <c r="B11" s="28"/>
+      <c r="C11" s="28"/>
+      <c r="D11" s="28"/>
+      <c r="E11" s="28"/>
+      <c r="F11" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -1443,44 +1468,45 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
-    <tabColor theme="5" tint="0.79998168889431442"/>
+    <tabColor theme="4" tint="0.79998168889431442"/>
   </sheetPr>
-  <dimension ref="A1:V135"/>
+  <dimension ref="A1:X136"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N12" sqref="N12"/>
+      <selection activeCell="Q4" sqref="Q4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="15.5" customWidth="1"/>
-    <col min="3" max="9" width="12" customWidth="1"/>
-    <col min="10" max="10" width="12" style="2" customWidth="1"/>
-    <col min="11" max="11" width="12" style="13" customWidth="1"/>
-    <col min="12" max="15" width="12" style="2" customWidth="1"/>
-    <col min="16" max="16" width="7.5" style="2" customWidth="1"/>
+    <col min="3" max="9" width="10.33203125" customWidth="1"/>
+    <col min="10" max="10" width="10.33203125" style="2" customWidth="1"/>
+    <col min="11" max="11" width="10.33203125" style="13" customWidth="1"/>
+    <col min="12" max="16" width="10.33203125" style="2" customWidth="1"/>
+    <col min="17" max="18" width="7.5" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="19" x14ac:dyDescent="0.25">
-      <c r="A1" s="25" t="s">
+    <row r="1" spans="1:24" ht="19" x14ac:dyDescent="0.25">
+      <c r="A1" s="27" t="s">
         <v>212</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
-      <c r="I1" s="25"/>
-      <c r="J1" s="25"/>
-      <c r="K1" s="25"/>
-      <c r="L1" s="25"/>
-      <c r="M1" s="25"/>
-      <c r="N1" s="25"/>
-      <c r="O1" s="24"/>
-    </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="27"/>
+      <c r="J1" s="27"/>
+      <c r="K1" s="27"/>
+      <c r="L1" s="27"/>
+      <c r="M1" s="27"/>
+      <c r="N1" s="27"/>
+      <c r="O1" s="25"/>
+      <c r="P1" s="25"/>
+    </row>
+    <row r="2" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>46</v>
       </c>
@@ -1526,17 +1552,23 @@
       <c r="O2" s="11" t="s">
         <v>238</v>
       </c>
-      <c r="P2" s="11"/>
-      <c r="Q2" s="7" t="s">
+      <c r="P2" s="11" t="s">
+        <v>239</v>
+      </c>
+      <c r="Q2" s="11" t="s">
+        <v>240</v>
+      </c>
+      <c r="R2" s="11"/>
+      <c r="S2" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="R2" s="7"/>
-      <c r="S2" s="7"/>
       <c r="T2" s="7"/>
       <c r="U2" s="7"/>
       <c r="V2" s="7"/>
-    </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W2" s="7"/>
+      <c r="X2" s="7"/>
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
         <v>1</v>
       </c>
@@ -1582,16 +1614,23 @@
       <c r="O3" s="2">
         <v>80</v>
       </c>
-      <c r="Q3" s="7" t="s">
+      <c r="P3">
+        <v>69</v>
+      </c>
+      <c r="Q3" s="2">
+        <v>57</v>
+      </c>
+      <c r="R3"/>
+      <c r="S3" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="R3" s="7"/>
-      <c r="S3" s="7"/>
       <c r="T3" s="7"/>
       <c r="U3" s="7"/>
       <c r="V3" s="7"/>
-    </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W3" s="7"/>
+      <c r="X3" s="7"/>
+    </row>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -1637,16 +1676,23 @@
       <c r="O4" s="2">
         <v>210</v>
       </c>
-      <c r="Q4" s="26" t="s">
+      <c r="P4">
+        <v>192</v>
+      </c>
+      <c r="Q4" s="2">
+        <v>157</v>
+      </c>
+      <c r="R4"/>
+      <c r="S4" s="28" t="s">
         <v>218</v>
       </c>
-      <c r="R4" s="26"/>
-      <c r="S4" s="26"/>
-      <c r="T4" s="26"/>
-      <c r="U4" s="26"/>
-      <c r="V4" s="26"/>
-    </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="T4" s="28"/>
+      <c r="U4" s="28"/>
+      <c r="V4" s="28"/>
+      <c r="W4" s="28"/>
+      <c r="X4" s="28"/>
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>5</v>
       </c>
@@ -1692,14 +1738,21 @@
       <c r="O5" s="2">
         <v>22</v>
       </c>
-      <c r="Q5" s="26"/>
-      <c r="R5" s="26"/>
-      <c r="S5" s="26"/>
-      <c r="T5" s="26"/>
-      <c r="U5" s="26"/>
-      <c r="V5" s="26"/>
-    </row>
-    <row r="6" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P5">
+        <v>18</v>
+      </c>
+      <c r="Q5" s="2">
+        <v>18</v>
+      </c>
+      <c r="R5"/>
+      <c r="S5" s="28"/>
+      <c r="T5" s="28"/>
+      <c r="U5" s="28"/>
+      <c r="V5" s="28"/>
+      <c r="W5" s="28"/>
+      <c r="X5" s="28"/>
+    </row>
+    <row r="6" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <v>7</v>
       </c>
@@ -1745,16 +1798,23 @@
       <c r="O6" s="2">
         <v>23</v>
       </c>
-      <c r="Q6" s="26" t="s">
+      <c r="P6">
+        <v>25</v>
+      </c>
+      <c r="Q6" s="2">
+        <v>21</v>
+      </c>
+      <c r="R6"/>
+      <c r="S6" s="28" t="s">
         <v>185</v>
       </c>
-      <c r="R6" s="26"/>
-      <c r="S6" s="26"/>
-      <c r="T6" s="26"/>
-      <c r="U6" s="26"/>
-      <c r="V6" s="26"/>
-    </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="T6" s="28"/>
+      <c r="U6" s="28"/>
+      <c r="V6" s="28"/>
+      <c r="W6" s="28"/>
+      <c r="X6" s="28"/>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <v>9</v>
       </c>
@@ -1800,14 +1860,21 @@
       <c r="O7" s="2">
         <v>51</v>
       </c>
-      <c r="Q7" s="26"/>
-      <c r="R7" s="26"/>
-      <c r="S7" s="26"/>
-      <c r="T7" s="26"/>
-      <c r="U7" s="26"/>
-      <c r="V7" s="26"/>
-    </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="P7">
+        <v>63</v>
+      </c>
+      <c r="Q7" s="2">
+        <v>36</v>
+      </c>
+      <c r="R7"/>
+      <c r="S7" s="28"/>
+      <c r="T7" s="28"/>
+      <c r="U7" s="28"/>
+      <c r="V7" s="28"/>
+      <c r="W7" s="28"/>
+      <c r="X7" s="28"/>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
         <v>11</v>
       </c>
@@ -1853,14 +1920,21 @@
       <c r="O8" s="2">
         <v>30</v>
       </c>
-      <c r="Q8" s="26"/>
-      <c r="R8" s="26"/>
-      <c r="S8" s="26"/>
-      <c r="T8" s="26"/>
-      <c r="U8" s="26"/>
-      <c r="V8" s="26"/>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="P8">
+        <v>19</v>
+      </c>
+      <c r="Q8" s="2">
+        <v>26</v>
+      </c>
+      <c r="R8"/>
+      <c r="S8" s="28"/>
+      <c r="T8" s="28"/>
+      <c r="U8" s="28"/>
+      <c r="V8" s="28"/>
+      <c r="W8" s="28"/>
+      <c r="X8" s="28"/>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
         <v>13</v>
       </c>
@@ -1906,14 +1980,21 @@
       <c r="O9" s="2">
         <v>417</v>
       </c>
-      <c r="Q9" s="26"/>
-      <c r="R9" s="26"/>
-      <c r="S9" s="26"/>
-      <c r="T9" s="26"/>
-      <c r="U9" s="26"/>
-      <c r="V9" s="26"/>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="P9">
+        <v>333</v>
+      </c>
+      <c r="Q9" s="2">
+        <v>329</v>
+      </c>
+      <c r="R9"/>
+      <c r="S9" s="28"/>
+      <c r="T9" s="28"/>
+      <c r="U9" s="28"/>
+      <c r="V9" s="28"/>
+      <c r="W9" s="28"/>
+      <c r="X9" s="28"/>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <v>15</v>
       </c>
@@ -1959,8 +2040,15 @@
       <c r="O10" s="2">
         <v>82</v>
       </c>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="P10">
+        <v>74</v>
+      </c>
+      <c r="Q10" s="2">
+        <v>61</v>
+      </c>
+      <c r="R10"/>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>17</v>
       </c>
@@ -2006,8 +2094,15 @@
       <c r="O11" s="2">
         <v>11</v>
       </c>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="P11">
+        <v>6</v>
+      </c>
+      <c r="Q11" s="2">
+        <v>6</v>
+      </c>
+      <c r="R11"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <v>19</v>
       </c>
@@ -2053,8 +2148,15 @@
       <c r="O12" s="2">
         <v>140</v>
       </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="P12">
+        <v>115</v>
+      </c>
+      <c r="Q12" s="2">
+        <v>90</v>
+      </c>
+      <c r="R12"/>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <v>21</v>
       </c>
@@ -2100,8 +2202,15 @@
       <c r="O13" s="2">
         <v>14</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="P13">
+        <v>8</v>
+      </c>
+      <c r="Q13" s="2">
+        <v>7</v>
+      </c>
+      <c r="R13"/>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
         <v>23</v>
       </c>
@@ -2147,8 +2256,15 @@
       <c r="O14" s="2">
         <v>38</v>
       </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="P14">
+        <v>50</v>
+      </c>
+      <c r="Q14" s="2">
+        <v>45</v>
+      </c>
+      <c r="R14"/>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
         <v>25</v>
       </c>
@@ -2194,8 +2310,15 @@
       <c r="O15" s="2">
         <v>64</v>
       </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="P15">
+        <v>44</v>
+      </c>
+      <c r="Q15" s="2">
+        <v>46</v>
+      </c>
+      <c r="R15"/>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
         <v>27</v>
       </c>
@@ -2241,8 +2364,15 @@
       <c r="O16" s="2">
         <v>32</v>
       </c>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P16">
+        <v>29</v>
+      </c>
+      <c r="Q16" s="2">
+        <v>32</v>
+      </c>
+      <c r="R16"/>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
         <v>29</v>
       </c>
@@ -2288,8 +2418,15 @@
       <c r="O17" s="2">
         <v>24</v>
       </c>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P17">
+        <v>39</v>
+      </c>
+      <c r="Q17" s="2">
+        <v>22</v>
+      </c>
+      <c r="R17"/>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
         <v>31</v>
       </c>
@@ -2335,8 +2472,15 @@
       <c r="O18" s="2">
         <v>118</v>
       </c>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P18">
+        <v>81</v>
+      </c>
+      <c r="Q18" s="2">
+        <v>92</v>
+      </c>
+      <c r="R18"/>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
         <v>33</v>
       </c>
@@ -2382,8 +2526,15 @@
       <c r="O19" s="2">
         <v>85</v>
       </c>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P19">
+        <v>86</v>
+      </c>
+      <c r="Q19" s="2">
+        <v>57</v>
+      </c>
+      <c r="R19"/>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A20" s="3">
         <v>35</v>
       </c>
@@ -2429,8 +2580,15 @@
       <c r="O20" s="2">
         <v>93</v>
       </c>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P20">
+        <v>64</v>
+      </c>
+      <c r="Q20" s="2">
+        <v>72</v>
+      </c>
+      <c r="R20"/>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A21" s="3">
         <v>36</v>
       </c>
@@ -2476,8 +2634,15 @@
       <c r="O21" s="2">
         <v>32</v>
       </c>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P21">
+        <v>20</v>
+      </c>
+      <c r="Q21" s="2">
+        <v>15</v>
+      </c>
+      <c r="R21"/>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A22" s="3">
         <v>37</v>
       </c>
@@ -2523,8 +2688,15 @@
       <c r="O22" s="2">
         <v>36</v>
       </c>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P22">
+        <v>21</v>
+      </c>
+      <c r="Q22" s="2">
+        <v>34</v>
+      </c>
+      <c r="R22"/>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A23" s="3">
         <v>41</v>
       </c>
@@ -2570,8 +2742,15 @@
       <c r="O23" s="2">
         <v>965</v>
       </c>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P23">
+        <v>844</v>
+      </c>
+      <c r="Q23" s="2">
+        <v>754</v>
+      </c>
+      <c r="R23"/>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A24" s="3">
         <v>43</v>
       </c>
@@ -2617,8 +2796,15 @@
       <c r="O24" s="2">
         <v>30</v>
       </c>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P24">
+        <v>19</v>
+      </c>
+      <c r="Q24" s="2">
+        <v>14</v>
+      </c>
+      <c r="R24"/>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A25" s="3">
         <v>45</v>
       </c>
@@ -2664,8 +2850,15 @@
       <c r="O25" s="2">
         <v>8</v>
       </c>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P25">
+        <v>1</v>
+      </c>
+      <c r="Q25" s="2">
+        <v>8</v>
+      </c>
+      <c r="R25"/>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A26" s="3">
         <v>47</v>
       </c>
@@ -2711,8 +2904,15 @@
       <c r="O26" s="2">
         <v>82</v>
       </c>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P26">
+        <v>78</v>
+      </c>
+      <c r="Q26" s="2">
+        <v>67</v>
+      </c>
+      <c r="R26"/>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A27" s="3">
         <v>49</v>
       </c>
@@ -2758,8 +2958,15 @@
       <c r="O27" s="2">
         <v>17</v>
       </c>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P27">
+        <v>14</v>
+      </c>
+      <c r="Q27" s="2">
+        <v>11</v>
+      </c>
+      <c r="R27"/>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A28" s="3">
         <v>51</v>
       </c>
@@ -2805,8 +3012,15 @@
       <c r="O28" s="2">
         <v>24</v>
       </c>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P28">
+        <v>11</v>
+      </c>
+      <c r="Q28" s="2">
+        <v>19</v>
+      </c>
+      <c r="R28"/>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A29" s="3">
         <v>53</v>
       </c>
@@ -2852,8 +3066,15 @@
       <c r="O29" s="2">
         <v>43</v>
       </c>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P29">
+        <v>24</v>
+      </c>
+      <c r="Q29" s="2">
+        <v>30</v>
+      </c>
+      <c r="R29"/>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A30" s="3">
         <v>57</v>
       </c>
@@ -2899,8 +3120,15 @@
       <c r="O30" s="2">
         <v>31</v>
       </c>
-    </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P30">
+        <v>36</v>
+      </c>
+      <c r="Q30" s="2">
+        <v>29</v>
+      </c>
+      <c r="R30"/>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A31" s="3">
         <v>59</v>
       </c>
@@ -2946,8 +3174,15 @@
       <c r="O31" s="2">
         <v>2745</v>
       </c>
-    </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P31">
+        <v>2415</v>
+      </c>
+      <c r="Q31" s="2">
+        <v>2212</v>
+      </c>
+      <c r="R31"/>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A32" s="3">
         <v>61</v>
       </c>
@@ -2993,8 +3228,15 @@
       <c r="O32" s="2">
         <v>98</v>
       </c>
-    </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P32">
+        <v>79</v>
+      </c>
+      <c r="Q32" s="2">
+        <v>72</v>
+      </c>
+      <c r="R32"/>
+    </row>
+    <row r="33" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A33" s="3">
         <v>63</v>
       </c>
@@ -3040,8 +3282,15 @@
       <c r="O33" s="2">
         <v>30</v>
       </c>
-    </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P33">
+        <v>41</v>
+      </c>
+      <c r="Q33" s="2">
+        <v>26</v>
+      </c>
+      <c r="R33"/>
+    </row>
+    <row r="34" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A34" s="3">
         <v>65</v>
       </c>
@@ -3087,8 +3336,15 @@
       <c r="O34" s="2">
         <v>66</v>
       </c>
-    </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P34">
+        <v>66</v>
+      </c>
+      <c r="Q34" s="2">
+        <v>29</v>
+      </c>
+      <c r="R34"/>
+    </row>
+    <row r="35" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A35" s="3">
         <v>67</v>
       </c>
@@ -3134,8 +3390,15 @@
       <c r="O35" s="2">
         <v>98</v>
       </c>
-    </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P35">
+        <v>116</v>
+      </c>
+      <c r="Q35" s="2">
+        <v>80</v>
+      </c>
+      <c r="R35"/>
+    </row>
+    <row r="36" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A36" s="3">
         <v>69</v>
       </c>
@@ -3181,8 +3444,15 @@
       <c r="O36" s="2">
         <v>151</v>
       </c>
-    </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P36">
+        <v>155</v>
+      </c>
+      <c r="Q36" s="2">
+        <v>89</v>
+      </c>
+      <c r="R36"/>
+    </row>
+    <row r="37" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A37" s="3">
         <v>71</v>
       </c>
@@ -3228,8 +3498,15 @@
       <c r="O37" s="2">
         <v>31</v>
       </c>
-    </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P37">
+        <v>29</v>
+      </c>
+      <c r="Q37" s="2">
+        <v>34</v>
+      </c>
+      <c r="R37"/>
+    </row>
+    <row r="38" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A38" s="3">
         <v>73</v>
       </c>
@@ -3275,8 +3552,15 @@
       <c r="O38" s="2">
         <v>82</v>
       </c>
-    </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P38">
+        <v>81</v>
+      </c>
+      <c r="Q38" s="2">
+        <v>77</v>
+      </c>
+      <c r="R38"/>
+    </row>
+    <row r="39" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A39" s="3">
         <v>75</v>
       </c>
@@ -3322,8 +3606,15 @@
       <c r="O39" s="2">
         <v>46</v>
       </c>
-    </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P39">
+        <v>33</v>
+      </c>
+      <c r="Q39" s="2">
+        <v>15</v>
+      </c>
+      <c r="R39"/>
+    </row>
+    <row r="40" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A40" s="3">
         <v>77</v>
       </c>
@@ -3369,8 +3660,15 @@
       <c r="O40" s="2">
         <v>14</v>
       </c>
-    </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P40">
+        <v>23</v>
+      </c>
+      <c r="Q40" s="2">
+        <v>16</v>
+      </c>
+      <c r="R40"/>
+    </row>
+    <row r="41" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A41" s="3">
         <v>79</v>
       </c>
@@ -3416,8 +3714,15 @@
       <c r="O41" s="2">
         <v>47</v>
       </c>
-    </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P41">
+        <v>32</v>
+      </c>
+      <c r="Q41" s="2">
+        <v>21</v>
+      </c>
+      <c r="R41"/>
+    </row>
+    <row r="42" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A42" s="3">
         <v>81</v>
       </c>
@@ -3463,8 +3768,15 @@
       <c r="O42" s="2">
         <v>60</v>
       </c>
-    </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P42">
+        <v>42</v>
+      </c>
+      <c r="Q42" s="2">
+        <v>58</v>
+      </c>
+      <c r="R42"/>
+    </row>
+    <row r="43" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A43" s="3">
         <v>83</v>
       </c>
@@ -3510,8 +3822,15 @@
       <c r="O43" s="2">
         <v>93</v>
       </c>
-    </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P43">
+        <v>87</v>
+      </c>
+      <c r="Q43" s="2">
+        <v>58</v>
+      </c>
+      <c r="R43"/>
+    </row>
+    <row r="44" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A44" s="3">
         <v>85</v>
       </c>
@@ -3557,8 +3876,15 @@
       <c r="O44" s="2">
         <v>205</v>
       </c>
-    </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P44">
+        <v>164</v>
+      </c>
+      <c r="Q44" s="2">
+        <v>157</v>
+      </c>
+      <c r="R44"/>
+    </row>
+    <row r="45" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A45" s="3">
         <v>87</v>
       </c>
@@ -3604,8 +3930,15 @@
       <c r="O45" s="2">
         <v>969</v>
       </c>
-    </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P45">
+        <v>792</v>
+      </c>
+      <c r="Q45" s="2">
+        <v>718</v>
+      </c>
+      <c r="R45"/>
+    </row>
+    <row r="46" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A46" s="3">
         <v>89</v>
       </c>
@@ -3651,8 +3984,15 @@
       <c r="O46" s="2">
         <v>285</v>
       </c>
-    </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P46">
+        <v>208</v>
+      </c>
+      <c r="Q46" s="2">
+        <v>196</v>
+      </c>
+      <c r="R46"/>
+    </row>
+    <row r="47" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A47" s="3">
         <v>91</v>
       </c>
@@ -3698,8 +4038,15 @@
       <c r="O47" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P47">
+        <v>4</v>
+      </c>
+      <c r="Q47" s="2">
+        <v>5</v>
+      </c>
+      <c r="R47"/>
+    </row>
+    <row r="48" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A48" s="3">
         <v>93</v>
       </c>
@@ -3745,8 +4092,15 @@
       <c r="O48" s="2">
         <v>93</v>
       </c>
-    </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P48">
+        <v>73</v>
+      </c>
+      <c r="Q48" s="2">
+        <v>68</v>
+      </c>
+      <c r="R48"/>
+    </row>
+    <row r="49" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A49" s="3">
         <v>95</v>
       </c>
@@ -3792,8 +4146,15 @@
       <c r="O49" s="2">
         <v>239</v>
       </c>
-    </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P49">
+        <v>216</v>
+      </c>
+      <c r="Q49" s="2">
+        <v>152</v>
+      </c>
+      <c r="R49"/>
+    </row>
+    <row r="50" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A50" s="3">
         <v>97</v>
       </c>
@@ -3839,8 +4200,15 @@
       <c r="O50" s="2">
         <v>17</v>
       </c>
-    </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P50">
+        <v>16</v>
+      </c>
+      <c r="Q50" s="2">
+        <v>10</v>
+      </c>
+      <c r="R50"/>
+    </row>
+    <row r="51" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A51" s="3">
         <v>99</v>
       </c>
@@ -3886,8 +4254,15 @@
       <c r="O51" s="2">
         <v>61</v>
       </c>
-    </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P51">
+        <v>43</v>
+      </c>
+      <c r="Q51" s="2">
+        <v>38</v>
+      </c>
+      <c r="R51"/>
+    </row>
+    <row r="52" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A52" s="3">
         <v>101</v>
       </c>
@@ -3933,8 +4308,15 @@
       <c r="O52" s="2">
         <v>41</v>
       </c>
-    </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P52">
+        <v>41</v>
+      </c>
+      <c r="Q52" s="2">
+        <v>17</v>
+      </c>
+      <c r="R52"/>
+    </row>
+    <row r="53" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A53" s="3">
         <v>103</v>
       </c>
@@ -3980,8 +4362,15 @@
       <c r="O53" s="2">
         <v>23</v>
       </c>
-    </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P53">
+        <v>23</v>
+      </c>
+      <c r="Q53" s="2">
+        <v>13</v>
+      </c>
+      <c r="R53"/>
+    </row>
+    <row r="54" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A54" s="3">
         <v>105</v>
       </c>
@@ -4027,8 +4416,15 @@
       <c r="O54" s="2">
         <v>21</v>
       </c>
-    </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P54">
+        <v>19</v>
+      </c>
+      <c r="Q54" s="2">
+        <v>32</v>
+      </c>
+      <c r="R54"/>
+    </row>
+    <row r="55" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A55" s="3">
         <v>107</v>
       </c>
@@ -4074,8 +4470,15 @@
       <c r="O55" s="2">
         <v>910</v>
       </c>
-    </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P55">
+        <v>762</v>
+      </c>
+      <c r="Q55" s="2">
+        <v>672</v>
+      </c>
+      <c r="R55"/>
+    </row>
+    <row r="56" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A56" s="3">
         <v>109</v>
       </c>
@@ -4121,8 +4524,15 @@
       <c r="O56" s="2">
         <v>82</v>
       </c>
-    </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P56">
+        <v>57</v>
+      </c>
+      <c r="Q56" s="2">
+        <v>40</v>
+      </c>
+      <c r="R56"/>
+    </row>
+    <row r="57" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A57" s="3">
         <v>111</v>
       </c>
@@ -4168,8 +4578,15 @@
       <c r="O57" s="2">
         <v>22</v>
       </c>
-    </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P57">
+        <v>20</v>
+      </c>
+      <c r="Q57" s="2">
+        <v>16</v>
+      </c>
+      <c r="R57"/>
+    </row>
+    <row r="58" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A58" s="3">
         <v>113</v>
       </c>
@@ -4215,8 +4632,15 @@
       <c r="O58" s="2">
         <v>17</v>
       </c>
-    </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P58">
+        <v>16</v>
+      </c>
+      <c r="Q58" s="2">
+        <v>13</v>
+      </c>
+      <c r="R58"/>
+    </row>
+    <row r="59" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A59" s="3">
         <v>115</v>
       </c>
@@ -4262,8 +4686,15 @@
       <c r="O59" s="2">
         <v>11</v>
       </c>
-    </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P59">
+        <v>15</v>
+      </c>
+      <c r="Q59" s="2">
+        <v>10</v>
+      </c>
+      <c r="R59"/>
+    </row>
+    <row r="60" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A60" s="3">
         <v>117</v>
       </c>
@@ -4309,8 +4740,15 @@
       <c r="O60" s="2">
         <v>72</v>
       </c>
-    </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P60">
+        <v>77</v>
+      </c>
+      <c r="Q60" s="2">
+        <v>67</v>
+      </c>
+      <c r="R60"/>
+    </row>
+    <row r="61" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A61" s="3">
         <v>119</v>
       </c>
@@ -4356,8 +4794,15 @@
       <c r="O61" s="2">
         <v>23</v>
       </c>
-    </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P61">
+        <v>25</v>
+      </c>
+      <c r="Q61" s="2">
+        <v>20</v>
+      </c>
+      <c r="R61"/>
+    </row>
+    <row r="62" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A62" s="3">
         <v>121</v>
       </c>
@@ -4403,8 +4848,15 @@
       <c r="O62" s="2">
         <v>199</v>
       </c>
-    </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P62">
+        <v>208</v>
+      </c>
+      <c r="Q62" s="2">
+        <v>158</v>
+      </c>
+      <c r="R62"/>
+    </row>
+    <row r="63" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A63" s="3">
         <v>125</v>
       </c>
@@ -4450,8 +4902,15 @@
       <c r="O63" s="2">
         <v>37</v>
       </c>
-    </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P63">
+        <v>28</v>
+      </c>
+      <c r="Q63" s="2">
+        <v>35</v>
+      </c>
+      <c r="R63"/>
+    </row>
+    <row r="64" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A64" s="3">
         <v>127</v>
       </c>
@@ -4497,8 +4956,15 @@
       <c r="O64" s="2">
         <v>74</v>
       </c>
-    </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P64">
+        <v>56</v>
+      </c>
+      <c r="Q64" s="2">
+        <v>32</v>
+      </c>
+      <c r="R64"/>
+    </row>
+    <row r="65" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A65" s="3">
         <v>131</v>
       </c>
@@ -4544,8 +5010,15 @@
       <c r="O65" s="2">
         <v>32</v>
       </c>
-    </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P65">
+        <v>24</v>
+      </c>
+      <c r="Q65" s="2">
+        <v>26</v>
+      </c>
+      <c r="R65"/>
+    </row>
+    <row r="66" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A66" s="3">
         <v>133</v>
       </c>
@@ -4591,8 +5064,15 @@
       <c r="O66" s="2">
         <v>32</v>
       </c>
-    </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P66">
+        <v>32</v>
+      </c>
+      <c r="Q66" s="2">
+        <v>23</v>
+      </c>
+      <c r="R66"/>
+    </row>
+    <row r="67" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A67" s="3">
         <v>135</v>
       </c>
@@ -4638,8 +5118,15 @@
       <c r="O67" s="2">
         <v>31</v>
       </c>
-    </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P67">
+        <v>29</v>
+      </c>
+      <c r="Q67" s="2">
+        <v>29</v>
+      </c>
+      <c r="R67"/>
+    </row>
+    <row r="68" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A68" s="3">
         <v>137</v>
       </c>
@@ -4685,8 +5172,15 @@
       <c r="O68" s="2">
         <v>80</v>
       </c>
-    </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P68">
+        <v>76</v>
+      </c>
+      <c r="Q68" s="2">
+        <v>72</v>
+      </c>
+      <c r="R68"/>
+    </row>
+    <row r="69" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A69" s="3">
         <v>139</v>
       </c>
@@ -4732,8 +5226,15 @@
       <c r="O69" s="2">
         <v>57</v>
       </c>
-    </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P69">
+        <v>59</v>
+      </c>
+      <c r="Q69" s="2">
+        <v>56</v>
+      </c>
+      <c r="R69"/>
+    </row>
+    <row r="70" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A70" s="3">
         <v>141</v>
       </c>
@@ -4779,8 +5280,15 @@
       <c r="O70" s="2">
         <v>17</v>
       </c>
-    </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P70">
+        <v>28</v>
+      </c>
+      <c r="Q70" s="2">
+        <v>17</v>
+      </c>
+      <c r="R70"/>
+    </row>
+    <row r="71" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A71" s="3">
         <v>143</v>
       </c>
@@ -4826,8 +5334,15 @@
       <c r="O71" s="2">
         <v>184</v>
       </c>
-    </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P71">
+        <v>93</v>
+      </c>
+      <c r="Q71" s="2">
+        <v>81</v>
+      </c>
+      <c r="R71"/>
+    </row>
+    <row r="72" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A72" s="3">
         <v>145</v>
       </c>
@@ -4873,8 +5388,15 @@
       <c r="O72" s="2">
         <v>45</v>
       </c>
-    </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P72">
+        <v>31</v>
+      </c>
+      <c r="Q72" s="2">
+        <v>36</v>
+      </c>
+      <c r="R72"/>
+    </row>
+    <row r="73" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A73" s="3">
         <v>147</v>
       </c>
@@ -4920,8 +5442,15 @@
       <c r="O73" s="2">
         <v>70</v>
       </c>
-    </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P73">
+        <v>53</v>
+      </c>
+      <c r="Q73" s="2">
+        <v>50</v>
+      </c>
+      <c r="R73"/>
+    </row>
+    <row r="74" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A74" s="3">
         <v>149</v>
       </c>
@@ -4967,8 +5496,15 @@
       <c r="O74" s="2">
         <v>77</v>
       </c>
-    </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P74">
+        <v>64</v>
+      </c>
+      <c r="Q74" s="2">
+        <v>64</v>
+      </c>
+      <c r="R74"/>
+    </row>
+    <row r="75" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A75" s="3">
         <v>153</v>
       </c>
@@ -5014,8 +5550,15 @@
       <c r="O75" s="2">
         <v>1414</v>
       </c>
-    </row>
-    <row r="76" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P75" s="2">
+        <v>1218</v>
+      </c>
+      <c r="Q75" s="2">
+        <v>1135</v>
+      </c>
+      <c r="R75"/>
+    </row>
+    <row r="76" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A76" s="3">
         <v>155</v>
       </c>
@@ -5061,8 +5604,15 @@
       <c r="O76" s="2">
         <v>85</v>
       </c>
-    </row>
-    <row r="77" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P76">
+        <v>87</v>
+      </c>
+      <c r="Q76" s="2">
+        <v>66</v>
+      </c>
+      <c r="R76"/>
+    </row>
+    <row r="77" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A77" s="3">
         <v>157</v>
       </c>
@@ -5108,8 +5658,15 @@
       <c r="O77" s="2">
         <v>11</v>
       </c>
-    </row>
-    <row r="78" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P77">
+        <v>9</v>
+      </c>
+      <c r="Q77" s="2">
+        <v>5</v>
+      </c>
+      <c r="R77"/>
+    </row>
+    <row r="78" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A78" s="3">
         <v>159</v>
       </c>
@@ -5155,8 +5712,15 @@
       <c r="O78" s="2">
         <v>29</v>
       </c>
-    </row>
-    <row r="79" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P78">
+        <v>25</v>
+      </c>
+      <c r="Q78" s="2">
+        <v>25</v>
+      </c>
+      <c r="R78"/>
+    </row>
+    <row r="79" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A79" s="3">
         <v>161</v>
       </c>
@@ -5202,8 +5766,15 @@
       <c r="O79" s="2">
         <v>215</v>
       </c>
-    </row>
-    <row r="80" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P79">
+        <v>165</v>
+      </c>
+      <c r="Q79" s="2">
+        <v>173</v>
+      </c>
+      <c r="R79"/>
+    </row>
+    <row r="80" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A80" s="3">
         <v>163</v>
       </c>
@@ -5249,8 +5820,15 @@
       <c r="O80" s="2">
         <v>45</v>
       </c>
-    </row>
-    <row r="81" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P80">
+        <v>40</v>
+      </c>
+      <c r="Q80" s="2">
+        <v>41</v>
+      </c>
+      <c r="R80"/>
+    </row>
+    <row r="81" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A81" s="3">
         <v>165</v>
       </c>
@@ -5296,8 +5874,15 @@
       <c r="O81" s="2">
         <v>116</v>
       </c>
-    </row>
-    <row r="82" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P81">
+        <v>105</v>
+      </c>
+      <c r="Q81" s="2">
+        <v>95</v>
+      </c>
+      <c r="R81"/>
+    </row>
+    <row r="82" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A82" s="3">
         <v>167</v>
       </c>
@@ -5343,8 +5928,15 @@
       <c r="O82" s="2">
         <v>41</v>
       </c>
-    </row>
-    <row r="83" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P82">
+        <v>45</v>
+      </c>
+      <c r="Q82" s="2">
+        <v>36</v>
+      </c>
+      <c r="R82"/>
+    </row>
+    <row r="83" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A83" s="3">
         <v>169</v>
       </c>
@@ -5390,8 +5982,15 @@
       <c r="O83" s="2">
         <v>35</v>
       </c>
-    </row>
-    <row r="84" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P83">
+        <v>22</v>
+      </c>
+      <c r="Q83" s="2">
+        <v>26</v>
+      </c>
+      <c r="R83"/>
+    </row>
+    <row r="84" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A84" s="3">
         <v>171</v>
       </c>
@@ -5437,8 +6036,15 @@
       <c r="O84" s="2">
         <v>110</v>
       </c>
-    </row>
-    <row r="85" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P84">
+        <v>79</v>
+      </c>
+      <c r="Q84" s="2">
+        <v>70</v>
+      </c>
+      <c r="R84"/>
+    </row>
+    <row r="85" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A85" s="3">
         <v>173</v>
       </c>
@@ -5484,8 +6090,15 @@
       <c r="O85" s="2">
         <v>117</v>
       </c>
-    </row>
-    <row r="86" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P85">
+        <v>56</v>
+      </c>
+      <c r="Q85" s="2">
+        <v>50</v>
+      </c>
+      <c r="R85"/>
+    </row>
+    <row r="86" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A86" s="3">
         <v>175</v>
       </c>
@@ -5531,8 +6144,15 @@
       <c r="O86" s="2">
         <v>25</v>
       </c>
-    </row>
-    <row r="87" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P86">
+        <v>26</v>
+      </c>
+      <c r="Q86" s="2">
+        <v>20</v>
+      </c>
+      <c r="R86"/>
+    </row>
+    <row r="87" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A87" s="3">
         <v>177</v>
       </c>
@@ -5578,8 +6198,15 @@
       <c r="O87" s="2">
         <v>268</v>
       </c>
-    </row>
-    <row r="88" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P87">
+        <v>273</v>
+      </c>
+      <c r="Q87" s="2">
+        <v>258</v>
+      </c>
+      <c r="R87"/>
+    </row>
+    <row r="88" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A88" s="3">
         <v>179</v>
       </c>
@@ -5625,8 +6252,15 @@
       <c r="O88" s="2">
         <v>343</v>
       </c>
-    </row>
-    <row r="89" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P88">
+        <v>324</v>
+      </c>
+      <c r="Q88" s="2">
+        <v>265</v>
+      </c>
+      <c r="R88"/>
+    </row>
+    <row r="89" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A89" s="3">
         <v>181</v>
       </c>
@@ -5672,8 +6306,15 @@
       <c r="O89" s="2">
         <v>13</v>
       </c>
-    </row>
-    <row r="90" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P89">
+        <v>17</v>
+      </c>
+      <c r="Q89" s="2">
+        <v>18</v>
+      </c>
+      <c r="R89"/>
+    </row>
+    <row r="90" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A90" s="3">
         <v>183</v>
       </c>
@@ -5719,8 +6360,15 @@
       <c r="O90" s="2">
         <v>33</v>
       </c>
-    </row>
-    <row r="91" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P90">
+        <v>26</v>
+      </c>
+      <c r="Q90" s="2">
+        <v>25</v>
+      </c>
+      <c r="R90"/>
+    </row>
+    <row r="91" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A91" s="3">
         <v>185</v>
       </c>
@@ -5766,8 +6414,15 @@
       <c r="O91" s="2">
         <v>88</v>
       </c>
-    </row>
-    <row r="92" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P91">
+        <v>72</v>
+      </c>
+      <c r="Q91" s="2">
+        <v>68</v>
+      </c>
+      <c r="R91"/>
+    </row>
+    <row r="92" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A92" s="3">
         <v>187</v>
       </c>
@@ -5813,8 +6468,15 @@
       <c r="O92" s="2">
         <v>87</v>
       </c>
-    </row>
-    <row r="93" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P92">
+        <v>83</v>
+      </c>
+      <c r="Q92" s="2">
+        <v>60</v>
+      </c>
+      <c r="R92"/>
+    </row>
+    <row r="93" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A93" s="3">
         <v>191</v>
       </c>
@@ -5860,8 +6522,15 @@
       <c r="O93" s="2">
         <v>169</v>
       </c>
-    </row>
-    <row r="94" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P93">
+        <v>105</v>
+      </c>
+      <c r="Q93" s="2">
+        <v>60</v>
+      </c>
+      <c r="R93"/>
+    </row>
+    <row r="94" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A94" s="3">
         <v>193</v>
       </c>
@@ -5907,8 +6576,15 @@
       <c r="O94" s="2">
         <v>44</v>
       </c>
-    </row>
-    <row r="95" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P94">
+        <v>42</v>
+      </c>
+      <c r="Q94" s="2">
+        <v>38</v>
+      </c>
+      <c r="R94"/>
+    </row>
+    <row r="95" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A95" s="3">
         <v>195</v>
       </c>
@@ -5954,8 +6630,15 @@
       <c r="O95" s="2">
         <v>91</v>
       </c>
-    </row>
-    <row r="96" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P95">
+        <v>70</v>
+      </c>
+      <c r="Q95" s="2">
+        <v>63</v>
+      </c>
+      <c r="R95"/>
+    </row>
+    <row r="96" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A96" s="3">
         <v>197</v>
       </c>
@@ -6001,8 +6684,15 @@
       <c r="O96" s="2">
         <v>119</v>
       </c>
-    </row>
-    <row r="97" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P96">
+        <v>54</v>
+      </c>
+      <c r="Q96" s="2">
+        <v>51</v>
+      </c>
+      <c r="R96"/>
+    </row>
+    <row r="97" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A97" s="3">
         <v>199</v>
       </c>
@@ -6048,8 +6738,15 @@
       <c r="O97" s="2">
         <v>94</v>
       </c>
-    </row>
-    <row r="98" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P97">
+        <v>96</v>
+      </c>
+      <c r="Q97" s="2">
+        <v>70</v>
+      </c>
+      <c r="R97"/>
+    </row>
+    <row r="98" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A98" s="3">
         <v>510</v>
       </c>
@@ -6095,8 +6792,15 @@
       <c r="O98" s="2">
         <v>454</v>
       </c>
-    </row>
-    <row r="99" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P98">
+        <v>409</v>
+      </c>
+      <c r="Q98" s="2">
+        <v>386</v>
+      </c>
+      <c r="R98"/>
+    </row>
+    <row r="99" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A99" s="3">
         <v>520</v>
       </c>
@@ -6142,8 +6846,15 @@
       <c r="O99" s="2">
         <v>46</v>
       </c>
-    </row>
-    <row r="100" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P99">
+        <v>49</v>
+      </c>
+      <c r="Q99" s="2">
+        <v>42</v>
+      </c>
+      <c r="R99"/>
+    </row>
+    <row r="100" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A100" s="3">
         <v>530</v>
       </c>
@@ -6189,8 +6900,15 @@
       <c r="O100" s="2">
         <v>22</v>
       </c>
-    </row>
-    <row r="101" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P100">
+        <v>18</v>
+      </c>
+      <c r="Q100" s="2">
+        <v>11</v>
+      </c>
+      <c r="R100"/>
+    </row>
+    <row r="101" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A101" s="3">
         <v>540</v>
       </c>
@@ -6236,8 +6954,15 @@
       <c r="O101" s="2">
         <v>222</v>
       </c>
-    </row>
-    <row r="102" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P101">
+        <v>188</v>
+      </c>
+      <c r="Q101" s="2">
+        <v>123</v>
+      </c>
+      <c r="R101"/>
+    </row>
+    <row r="102" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A102" s="3">
         <v>550</v>
       </c>
@@ -6283,8 +7008,15 @@
       <c r="O102" s="2">
         <v>740</v>
       </c>
-    </row>
-    <row r="103" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P102">
+        <v>770</v>
+      </c>
+      <c r="Q102" s="2">
+        <v>728</v>
+      </c>
+      <c r="R102"/>
+    </row>
+    <row r="103" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A103" s="3">
         <v>570</v>
       </c>
@@ -6330,8 +7062,15 @@
       <c r="O103" s="2">
         <v>94</v>
       </c>
-    </row>
-    <row r="104" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P103">
+        <v>93</v>
+      </c>
+      <c r="Q103" s="2">
+        <v>76</v>
+      </c>
+      <c r="R103"/>
+    </row>
+    <row r="104" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A104" s="3">
         <v>580</v>
       </c>
@@ -6377,8 +7116,15 @@
       <c r="O104" s="2">
         <v>29</v>
       </c>
-    </row>
-    <row r="105" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P104">
+        <v>26</v>
+      </c>
+      <c r="Q104" s="2">
+        <v>31</v>
+      </c>
+      <c r="R104"/>
+    </row>
+    <row r="105" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A105" s="3">
         <v>590</v>
       </c>
@@ -6424,8 +7170,15 @@
       <c r="O105" s="2">
         <v>208</v>
       </c>
-    </row>
-    <row r="106" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P105">
+        <v>209</v>
+      </c>
+      <c r="Q105" s="2">
+        <v>156</v>
+      </c>
+      <c r="R105"/>
+    </row>
+    <row r="106" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A106" s="3">
         <v>595</v>
       </c>
@@ -6471,8 +7224,15 @@
       <c r="O106" s="2">
         <v>21</v>
       </c>
-    </row>
-    <row r="107" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P106">
+        <v>15</v>
+      </c>
+      <c r="Q106" s="2">
+        <v>10</v>
+      </c>
+      <c r="R106"/>
+    </row>
+    <row r="107" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A107" s="3">
         <v>600</v>
       </c>
@@ -6518,8 +7278,15 @@
       <c r="O107" s="2">
         <v>32</v>
       </c>
-    </row>
-    <row r="108" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P107">
+        <v>21</v>
+      </c>
+      <c r="Q107" s="2">
+        <v>14</v>
+      </c>
+      <c r="R107"/>
+    </row>
+    <row r="108" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A108" s="3">
         <v>610</v>
       </c>
@@ -6565,8 +7332,15 @@
       <c r="O108" s="2">
         <v>34</v>
       </c>
-    </row>
-    <row r="109" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P108">
+        <v>31</v>
+      </c>
+      <c r="Q108" s="2">
+        <v>28</v>
+      </c>
+      <c r="R108"/>
+    </row>
+    <row r="109" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A109" s="3">
         <v>620</v>
       </c>
@@ -6612,8 +7386,15 @@
       <c r="O109" s="2">
         <v>62</v>
       </c>
-    </row>
-    <row r="110" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P109">
+        <v>51</v>
+      </c>
+      <c r="Q109" s="2">
+        <v>47</v>
+      </c>
+      <c r="R109"/>
+    </row>
+    <row r="110" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A110" s="3">
         <v>630</v>
       </c>
@@ -6659,8 +7440,15 @@
       <c r="O110" s="2">
         <v>126</v>
       </c>
-    </row>
-    <row r="111" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P110">
+        <v>119</v>
+      </c>
+      <c r="Q110" s="2">
+        <v>106</v>
+      </c>
+      <c r="R110"/>
+    </row>
+    <row r="111" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A111" s="3">
         <v>640</v>
       </c>
@@ -6706,8 +7494,15 @@
       <c r="O111" s="2">
         <v>7</v>
       </c>
-    </row>
-    <row r="112" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P111">
+        <v>7</v>
+      </c>
+      <c r="Q111" s="2">
+        <v>4</v>
+      </c>
+      <c r="R111"/>
+    </row>
+    <row r="112" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A112" s="3">
         <v>650</v>
       </c>
@@ -6753,8 +7548,15 @@
       <c r="O112" s="2">
         <v>613</v>
       </c>
-    </row>
-    <row r="113" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P112">
+        <v>608</v>
+      </c>
+      <c r="Q112" s="2">
+        <v>638</v>
+      </c>
+      <c r="R112"/>
+    </row>
+    <row r="113" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A113" s="3">
         <v>660</v>
       </c>
@@ -6800,8 +7602,15 @@
       <c r="O113" s="2">
         <v>199</v>
       </c>
-    </row>
-    <row r="114" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P113">
+        <v>152</v>
+      </c>
+      <c r="Q113" s="2">
+        <v>120</v>
+      </c>
+      <c r="R113"/>
+    </row>
+    <row r="114" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A114" s="3">
         <v>670</v>
       </c>
@@ -6847,8 +7656,15 @@
       <c r="O114" s="2">
         <v>155</v>
       </c>
-    </row>
-    <row r="115" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P114">
+        <v>146</v>
+      </c>
+      <c r="Q114" s="2">
+        <v>133</v>
+      </c>
+      <c r="R114"/>
+    </row>
+    <row r="115" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A115" s="3">
         <v>678</v>
       </c>
@@ -6894,8 +7710,15 @@
       <c r="O115" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="116" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P115">
+        <v>2</v>
+      </c>
+      <c r="Q115" s="2">
+        <v>2</v>
+      </c>
+      <c r="R115"/>
+    </row>
+    <row r="116" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A116" s="3">
         <v>680</v>
       </c>
@@ -6941,8 +7764,15 @@
       <c r="O116" s="2">
         <v>331</v>
       </c>
-    </row>
-    <row r="117" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P116">
+        <v>285</v>
+      </c>
+      <c r="Q116" s="2">
+        <v>211</v>
+      </c>
+      <c r="R116"/>
+    </row>
+    <row r="117" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A117" s="3">
         <v>683</v>
       </c>
@@ -6988,8 +7818,15 @@
       <c r="O117" s="2">
         <v>144</v>
       </c>
-    </row>
-    <row r="118" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P117">
+        <v>142</v>
+      </c>
+      <c r="Q117" s="2">
+        <v>96</v>
+      </c>
+      <c r="R117"/>
+    </row>
+    <row r="118" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A118" s="3">
         <v>685</v>
       </c>
@@ -7035,8 +7872,15 @@
       <c r="O118" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="119" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P118">
+        <v>2</v>
+      </c>
+      <c r="Q118" s="2">
+        <v>3</v>
+      </c>
+      <c r="R118"/>
+    </row>
+    <row r="119" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A119" s="3">
         <v>690</v>
       </c>
@@ -7082,8 +7926,15 @@
       <c r="O119" s="2">
         <v>39</v>
       </c>
-    </row>
-    <row r="120" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P119">
+        <v>25</v>
+      </c>
+      <c r="Q119" s="2">
+        <v>28</v>
+      </c>
+      <c r="R119"/>
+    </row>
+    <row r="120" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A120" s="3">
         <v>700</v>
       </c>
@@ -7129,8 +7980,15 @@
       <c r="O120" s="2">
         <v>888</v>
       </c>
-    </row>
-    <row r="121" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P120">
+        <v>854</v>
+      </c>
+      <c r="Q120" s="2">
+        <v>795</v>
+      </c>
+      <c r="R120"/>
+    </row>
+    <row r="121" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A121" s="3">
         <v>710</v>
       </c>
@@ -7176,8 +8034,15 @@
       <c r="O121" s="2">
         <v>1139</v>
       </c>
-    </row>
-    <row r="122" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P121" s="2">
+        <v>1082</v>
+      </c>
+      <c r="Q121" s="2">
+        <v>1224</v>
+      </c>
+      <c r="R121"/>
+    </row>
+    <row r="122" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A122" s="3">
         <v>720</v>
       </c>
@@ -7223,8 +8088,15 @@
       <c r="O122" s="2">
         <v>12</v>
       </c>
-    </row>
-    <row r="123" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P122">
+        <v>18</v>
+      </c>
+      <c r="Q122" s="2">
+        <v>18</v>
+      </c>
+      <c r="R122"/>
+    </row>
+    <row r="123" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A123" s="3">
         <v>730</v>
       </c>
@@ -7270,8 +8142,15 @@
       <c r="O123" s="2">
         <v>375</v>
       </c>
-    </row>
-    <row r="124" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P123">
+        <v>375</v>
+      </c>
+      <c r="Q123" s="2">
+        <v>346</v>
+      </c>
+      <c r="R123"/>
+    </row>
+    <row r="124" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A124" s="3">
         <v>735</v>
       </c>
@@ -7317,8 +8196,15 @@
       <c r="O124" s="2">
         <v>19</v>
       </c>
-    </row>
-    <row r="125" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P124">
+        <v>23</v>
+      </c>
+      <c r="Q124" s="2">
+        <v>16</v>
+      </c>
+      <c r="R124"/>
+    </row>
+    <row r="125" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A125" s="3">
         <v>740</v>
       </c>
@@ -7364,8 +8250,15 @@
       <c r="O125" s="2">
         <v>555</v>
       </c>
-    </row>
-    <row r="126" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P125">
+        <v>653</v>
+      </c>
+      <c r="Q125" s="2">
+        <v>700</v>
+      </c>
+      <c r="R125"/>
+    </row>
+    <row r="126" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A126" s="3">
         <v>750</v>
       </c>
@@ -7411,8 +8304,15 @@
       <c r="O126" s="2">
         <v>52</v>
       </c>
-    </row>
-    <row r="127" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P126">
+        <v>60</v>
+      </c>
+      <c r="Q126" s="2">
+        <v>65</v>
+      </c>
+      <c r="R126"/>
+    </row>
+    <row r="127" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A127" s="3">
         <v>760</v>
       </c>
@@ -7458,8 +8358,15 @@
       <c r="O127" s="2">
         <v>1319</v>
       </c>
-    </row>
-    <row r="128" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P127" s="2">
+        <v>1284</v>
+      </c>
+      <c r="Q127" s="2">
+        <v>1214</v>
+      </c>
+      <c r="R127"/>
+    </row>
+    <row r="128" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A128" s="3">
         <v>770</v>
       </c>
@@ -7505,8 +8412,15 @@
       <c r="O128" s="2">
         <v>412</v>
       </c>
-    </row>
-    <row r="129" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P128">
+        <v>381</v>
+      </c>
+      <c r="Q128" s="2">
+        <v>379</v>
+      </c>
+      <c r="R128"/>
+    </row>
+    <row r="129" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A129" s="3">
         <v>775</v>
       </c>
@@ -7552,8 +8466,15 @@
       <c r="O129" s="2">
         <v>76</v>
       </c>
-    </row>
-    <row r="130" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P129">
+        <v>69</v>
+      </c>
+      <c r="Q129" s="2">
+        <v>58</v>
+      </c>
+      <c r="R129"/>
+    </row>
+    <row r="130" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A130" s="3">
         <v>790</v>
       </c>
@@ -7599,8 +8520,15 @@
       <c r="O130" s="2">
         <v>97</v>
       </c>
-    </row>
-    <row r="131" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P130">
+        <v>77</v>
+      </c>
+      <c r="Q130" s="2">
+        <v>75</v>
+      </c>
+      <c r="R130"/>
+    </row>
+    <row r="131" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A131" s="3">
         <v>800</v>
       </c>
@@ -7646,8 +8574,15 @@
       <c r="O131" s="2">
         <v>330</v>
       </c>
-    </row>
-    <row r="132" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P131">
+        <v>314</v>
+      </c>
+      <c r="Q131" s="2">
+        <v>304</v>
+      </c>
+      <c r="R131"/>
+    </row>
+    <row r="132" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A132" s="3">
         <v>810</v>
       </c>
@@ -7693,8 +8628,15 @@
       <c r="O132" s="2">
         <v>1236</v>
       </c>
-    </row>
-    <row r="133" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P132" s="2">
+        <v>1235</v>
+      </c>
+      <c r="Q132" s="2">
+        <v>1120</v>
+      </c>
+      <c r="R132"/>
+    </row>
+    <row r="133" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A133" s="3">
         <v>820</v>
       </c>
@@ -7740,8 +8682,15 @@
       <c r="O133" s="2">
         <v>91</v>
       </c>
-    </row>
-    <row r="134" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P133">
+        <v>74</v>
+      </c>
+      <c r="Q133" s="2">
+        <v>61</v>
+      </c>
+      <c r="R133"/>
+    </row>
+    <row r="134" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A134" s="3">
         <v>830</v>
       </c>
@@ -7787,8 +8736,15 @@
       <c r="O134" s="2">
         <v>43</v>
       </c>
-    </row>
-    <row r="135" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P134">
+        <v>34</v>
+      </c>
+      <c r="Q134" s="2">
+        <v>14</v>
+      </c>
+      <c r="R134"/>
+    </row>
+    <row r="135" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A135" s="3">
         <v>840</v>
       </c>
@@ -7834,12 +8790,23 @@
       <c r="O135" s="2">
         <v>94</v>
       </c>
+      <c r="P135">
+        <v>82</v>
+      </c>
+      <c r="Q135" s="2">
+        <v>47</v>
+      </c>
+      <c r="R135"/>
+    </row>
+    <row r="136" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="P136"/>
+      <c r="R136"/>
     </row>
   </sheetData>
-  <autoFilter ref="A2:O2" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
+  <autoFilter ref="A2:Q2" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
   <mergeCells count="3">
-    <mergeCell ref="Q4:V5"/>
-    <mergeCell ref="Q6:V9"/>
+    <mergeCell ref="S4:X5"/>
+    <mergeCell ref="S6:X9"/>
     <mergeCell ref="A1:N1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7850,45 +8817,45 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
-    <tabColor theme="5" tint="0.79998168889431442"/>
+    <tabColor theme="4" tint="0.79998168889431442"/>
   </sheetPr>
-  <dimension ref="A1:U35"/>
+  <dimension ref="A1:W35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+      <selection activeCell="Q17" sqref="Q17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="37.83203125" customWidth="1"/>
-    <col min="2" max="9" width="11.1640625" customWidth="1"/>
-    <col min="10" max="10" width="11.1640625" style="15" customWidth="1"/>
-    <col min="11" max="12" width="11.1640625" customWidth="1"/>
-    <col min="13" max="13" width="11.6640625" customWidth="1"/>
-    <col min="14" max="14" width="12.83203125" customWidth="1"/>
-    <col min="15" max="15" width="3.5" customWidth="1"/>
+    <col min="1" max="1" width="29.33203125" customWidth="1"/>
+    <col min="2" max="9" width="9" customWidth="1"/>
+    <col min="10" max="10" width="9" style="15" customWidth="1"/>
+    <col min="11" max="16" width="9" customWidth="1"/>
+    <col min="17" max="17" width="5.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="19" x14ac:dyDescent="0.25">
-      <c r="A1" s="25" t="s">
+    <row r="1" spans="1:23" ht="19" x14ac:dyDescent="0.25">
+      <c r="A1" s="27" t="s">
         <v>213</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
-      <c r="I1" s="25"/>
-      <c r="J1" s="25"/>
-      <c r="K1" s="25"/>
-      <c r="L1" s="25"/>
-      <c r="M1" s="25"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="27"/>
+      <c r="J1" s="27"/>
+      <c r="K1" s="27"/>
+      <c r="L1" s="27"/>
+      <c r="M1" s="27"/>
       <c r="N1" s="23"/>
-      <c r="O1" s="8"/>
-    </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="O1" s="24"/>
+      <c r="P1" s="26"/>
+      <c r="Q1" s="8"/>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>41</v>
       </c>
@@ -7931,17 +8898,23 @@
       <c r="N2" s="11" t="s">
         <v>238</v>
       </c>
-      <c r="O2" s="1"/>
-      <c r="P2" s="1" t="s">
+      <c r="O2" s="11" t="s">
+        <v>239</v>
+      </c>
+      <c r="P2" s="11" t="s">
+        <v>240</v>
+      </c>
+      <c r="Q2" s="1"/>
+      <c r="R2" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="Q2" s="1"/>
-      <c r="R2" s="1"/>
       <c r="S2" s="1"/>
       <c r="T2" s="1"/>
       <c r="U2" s="1"/>
-    </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V2" s="1"/>
+      <c r="W2" s="1"/>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -7984,17 +8957,23 @@
       <c r="N3" s="2">
         <v>344</v>
       </c>
-      <c r="O3" s="2"/>
-      <c r="P3" s="1" t="s">
+      <c r="O3" s="2">
+        <v>286</v>
+      </c>
+      <c r="P3" s="2">
+        <v>294</v>
+      </c>
+      <c r="Q3" s="2"/>
+      <c r="R3" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="Q3" s="1"/>
-      <c r="R3" s="1"/>
       <c r="S3" s="1"/>
       <c r="T3" s="1"/>
       <c r="U3" s="1"/>
-    </row>
-    <row r="4" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V3" s="1"/>
+      <c r="W3" s="1"/>
+    </row>
+    <row r="4" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -8037,17 +9016,23 @@
       <c r="N4" s="2">
         <v>976</v>
       </c>
-      <c r="O4" s="2"/>
-      <c r="P4" s="27" t="s">
+      <c r="O4" s="2">
+        <v>791</v>
+      </c>
+      <c r="P4" s="2">
+        <v>651</v>
+      </c>
+      <c r="Q4" s="2"/>
+      <c r="R4" s="29" t="s">
         <v>219</v>
       </c>
-      <c r="Q4" s="27"/>
-      <c r="R4" s="27"/>
-      <c r="S4" s="27"/>
-      <c r="T4" s="27"/>
-      <c r="U4" s="27"/>
-    </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="S4" s="29"/>
+      <c r="T4" s="29"/>
+      <c r="U4" s="29"/>
+      <c r="V4" s="29"/>
+      <c r="W4" s="29"/>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -8090,15 +9075,21 @@
       <c r="N5" s="2">
         <v>898</v>
       </c>
-      <c r="O5" s="2"/>
-      <c r="P5" s="27"/>
-      <c r="Q5" s="27"/>
-      <c r="R5" s="27"/>
-      <c r="S5" s="27"/>
-      <c r="T5" s="27"/>
-      <c r="U5" s="27"/>
-    </row>
-    <row r="6" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O5" s="2">
+        <v>826</v>
+      </c>
+      <c r="P5" s="2">
+        <v>792</v>
+      </c>
+      <c r="Q5" s="2"/>
+      <c r="R5" s="29"/>
+      <c r="S5" s="29"/>
+      <c r="T5" s="29"/>
+      <c r="U5" s="29"/>
+      <c r="V5" s="29"/>
+      <c r="W5" s="29"/>
+    </row>
+    <row r="6" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -8141,17 +9132,23 @@
       <c r="N6" s="2">
         <v>1201</v>
       </c>
-      <c r="O6" s="2"/>
-      <c r="P6" s="27" t="s">
+      <c r="O6" s="2">
+        <v>1029</v>
+      </c>
+      <c r="P6" s="2">
+        <v>813</v>
+      </c>
+      <c r="Q6" s="2"/>
+      <c r="R6" s="29" t="s">
         <v>185</v>
       </c>
-      <c r="Q6" s="27"/>
-      <c r="R6" s="27"/>
-      <c r="S6" s="27"/>
-      <c r="T6" s="27"/>
-      <c r="U6" s="27"/>
-    </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="S6" s="29"/>
+      <c r="T6" s="29"/>
+      <c r="U6" s="29"/>
+      <c r="V6" s="29"/>
+      <c r="W6" s="29"/>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -8194,15 +9191,21 @@
       <c r="N7" s="2">
         <v>952</v>
       </c>
-      <c r="O7" s="2"/>
-      <c r="P7" s="27"/>
-      <c r="Q7" s="27"/>
-      <c r="R7" s="27"/>
-      <c r="S7" s="27"/>
-      <c r="T7" s="27"/>
-      <c r="U7" s="27"/>
-    </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="O7" s="2">
+        <v>821</v>
+      </c>
+      <c r="P7" s="2">
+        <v>634</v>
+      </c>
+      <c r="Q7" s="2"/>
+      <c r="R7" s="29"/>
+      <c r="S7" s="29"/>
+      <c r="T7" s="29"/>
+      <c r="U7" s="29"/>
+      <c r="V7" s="29"/>
+      <c r="W7" s="29"/>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -8245,15 +9248,21 @@
       <c r="N8" s="2">
         <v>670</v>
       </c>
-      <c r="O8" s="2"/>
-      <c r="P8" s="27"/>
-      <c r="Q8" s="27"/>
-      <c r="R8" s="27"/>
-      <c r="S8" s="27"/>
-      <c r="T8" s="27"/>
-      <c r="U8" s="27"/>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="O8" s="2">
+        <v>563</v>
+      </c>
+      <c r="P8" s="2">
+        <v>455</v>
+      </c>
+      <c r="Q8" s="2"/>
+      <c r="R8" s="29"/>
+      <c r="S8" s="29"/>
+      <c r="T8" s="29"/>
+      <c r="U8" s="29"/>
+      <c r="V8" s="29"/>
+      <c r="W8" s="29"/>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -8296,15 +9305,21 @@
       <c r="N9" s="2">
         <v>452</v>
       </c>
-      <c r="O9" s="2"/>
-      <c r="P9" s="27"/>
-      <c r="Q9" s="27"/>
-      <c r="R9" s="27"/>
-      <c r="S9" s="27"/>
-      <c r="T9" s="27"/>
-      <c r="U9" s="27"/>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="O9" s="2">
+        <v>409</v>
+      </c>
+      <c r="P9" s="2">
+        <v>354</v>
+      </c>
+      <c r="Q9" s="2"/>
+      <c r="R9" s="29"/>
+      <c r="S9" s="29"/>
+      <c r="T9" s="29"/>
+      <c r="U9" s="29"/>
+      <c r="V9" s="29"/>
+      <c r="W9" s="29"/>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>6</v>
       </c>
@@ -8347,9 +9362,15 @@
       <c r="N10" s="2">
         <v>3655</v>
       </c>
-      <c r="O10" s="2"/>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="O10" s="2">
+        <v>3224</v>
+      </c>
+      <c r="P10" s="2">
+        <v>2941</v>
+      </c>
+      <c r="Q10" s="2"/>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -8392,9 +9413,15 @@
       <c r="N11" s="2">
         <v>5279</v>
       </c>
-      <c r="O11" s="2"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="O11" s="2">
+        <v>4591</v>
+      </c>
+      <c r="P11" s="2">
+        <v>4160</v>
+      </c>
+      <c r="Q11" s="2"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -8437,9 +9464,15 @@
       <c r="N12" s="2">
         <v>871</v>
       </c>
-      <c r="O12" s="2"/>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="O12" s="2">
+        <v>742</v>
+      </c>
+      <c r="P12" s="2">
+        <v>715</v>
+      </c>
+      <c r="Q12" s="2"/>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -8482,9 +9515,15 @@
       <c r="N13" s="2">
         <v>1246</v>
       </c>
-      <c r="O13" s="2"/>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="O13" s="2">
+        <v>1193</v>
+      </c>
+      <c r="P13" s="2">
+        <v>992</v>
+      </c>
+      <c r="Q13" s="2"/>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -8527,9 +9566,15 @@
       <c r="N14" s="2">
         <v>1978</v>
       </c>
-      <c r="O14" s="2"/>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="O14" s="2">
+        <v>1912</v>
+      </c>
+      <c r="P14" s="2">
+        <v>1762</v>
+      </c>
+      <c r="Q14" s="2"/>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -8572,9 +9617,15 @@
       <c r="N15" s="2">
         <v>871</v>
       </c>
-      <c r="O15" s="2"/>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="O15" s="2">
+        <v>802</v>
+      </c>
+      <c r="P15" s="2">
+        <v>760</v>
+      </c>
+      <c r="Q15" s="2"/>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -8617,9 +9668,15 @@
       <c r="N16" s="2">
         <v>4180</v>
       </c>
-      <c r="O16" s="2"/>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O16" s="2">
+        <v>4204</v>
+      </c>
+      <c r="P16" s="2">
+        <v>4211</v>
+      </c>
+      <c r="Q16" s="2"/>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -8662,17 +9719,25 @@
       <c r="N17" s="2">
         <v>733</v>
       </c>
-      <c r="O17" s="2"/>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O17" s="2">
+        <v>563</v>
+      </c>
+      <c r="P17" s="2">
+        <v>478</v>
+      </c>
+      <c r="Q17" s="2"/>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
       <c r="J20" s="13"/>
       <c r="K20" s="2"/>
       <c r="L20" s="2"/>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P20" s="2"/>
+      <c r="Q20" s="2"/>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -8688,8 +9753,10 @@
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P21" s="2"/>
+      <c r="Q21" s="2"/>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
@@ -8705,8 +9772,10 @@
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P22" s="2"/>
+      <c r="Q22" s="2"/>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
@@ -8722,8 +9791,10 @@
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P23" s="2"/>
+      <c r="Q23" s="2"/>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
@@ -8739,8 +9810,10 @@
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P24" s="2"/>
+      <c r="Q24" s="2"/>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
@@ -8756,8 +9829,10 @@
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P25" s="2"/>
+      <c r="Q25" s="2"/>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
@@ -8773,8 +9848,10 @@
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P26" s="2"/>
+      <c r="Q26" s="2"/>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
@@ -8790,8 +9867,10 @@
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
       <c r="O27" s="2"/>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P27" s="2"/>
+      <c r="Q27" s="2"/>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
@@ -8807,8 +9886,10 @@
       <c r="M28" s="2"/>
       <c r="N28" s="2"/>
       <c r="O28" s="2"/>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P28" s="2"/>
+      <c r="Q28" s="2"/>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
@@ -8824,8 +9905,10 @@
       <c r="M29" s="2"/>
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P29" s="2"/>
+      <c r="Q29" s="2"/>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
@@ -8841,8 +9924,10 @@
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
       <c r="O30" s="2"/>
-    </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P30" s="2"/>
+      <c r="Q30" s="2"/>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
@@ -8858,8 +9943,10 @@
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
-    </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P31" s="2"/>
+      <c r="Q31" s="2"/>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A32" s="2"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
@@ -8875,8 +9962,10 @@
       <c r="M32" s="2"/>
       <c r="N32" s="2"/>
       <c r="O32" s="2"/>
-    </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P32" s="2"/>
+      <c r="Q32" s="2"/>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A33" s="2"/>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
@@ -8892,8 +9981,10 @@
       <c r="M33" s="2"/>
       <c r="N33" s="2"/>
       <c r="O33" s="2"/>
-    </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P33" s="2"/>
+      <c r="Q33" s="2"/>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A34" s="2"/>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
@@ -8909,8 +10000,10 @@
       <c r="M34" s="2"/>
       <c r="N34" s="2"/>
       <c r="O34" s="2"/>
-    </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P34" s="2"/>
+      <c r="Q34" s="2"/>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A35" s="2"/>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
@@ -8922,10 +10015,10 @@
       <c r="I35" s="2"/>
     </row>
   </sheetData>
-  <autoFilter ref="A2:N2" xr:uid="{00000000-0009-0000-0000-000002000000}"/>
+  <autoFilter ref="A2:P2" xr:uid="{00000000-0009-0000-0000-000002000000}"/>
   <mergeCells count="3">
-    <mergeCell ref="P4:U5"/>
-    <mergeCell ref="P6:U9"/>
+    <mergeCell ref="R4:W5"/>
+    <mergeCell ref="R6:W9"/>
     <mergeCell ref="A1:M1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8936,12 +10029,12 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
-    <tabColor theme="5" tint="0.79998168889431442"/>
+    <tabColor theme="4" tint="0.79998168889431442"/>
   </sheetPr>
   <dimension ref="A1:Q31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F34" sqref="F34"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="N13" sqref="N13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -8953,14 +10046,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="19" x14ac:dyDescent="0.25">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="30" t="s">
         <v>214</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
     </row>
     <row r="2" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="19" t="s">
@@ -9023,49 +10116,49 @@
         <v>17</v>
       </c>
       <c r="C3" s="22">
-        <v>505</v>
+        <v>536</v>
       </c>
       <c r="D3" s="22">
-        <v>2223</v>
+        <v>2322</v>
       </c>
       <c r="E3" s="22">
-        <v>2547</v>
+        <v>2635</v>
       </c>
       <c r="F3" s="22">
-        <v>4058</v>
+        <v>4198</v>
       </c>
       <c r="G3" s="22">
-        <v>11622</v>
+        <v>12078</v>
       </c>
       <c r="H3" s="22">
-        <v>3777</v>
+        <v>3914</v>
       </c>
       <c r="I3" s="22">
-        <v>1728</v>
+        <v>1781</v>
       </c>
       <c r="J3" s="22">
-        <v>839</v>
+        <v>888</v>
       </c>
       <c r="K3" s="22">
-        <v>19853</v>
+        <v>20524</v>
       </c>
       <c r="L3" s="22">
-        <v>2851</v>
+        <v>2998</v>
       </c>
       <c r="M3" s="22">
-        <v>4119</v>
+        <v>4247</v>
       </c>
       <c r="N3" s="22">
-        <v>5178</v>
+        <v>5373</v>
       </c>
       <c r="O3" s="22">
-        <v>1280</v>
+        <v>1364</v>
       </c>
       <c r="P3" s="22">
-        <v>11083</v>
+        <v>11520</v>
       </c>
       <c r="Q3" s="22">
-        <v>1113</v>
+        <v>1169</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.2">
@@ -9076,49 +10169,49 @@
         <v>18</v>
       </c>
       <c r="C4" s="22">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="D4" s="22">
-        <v>399</v>
+        <v>428</v>
       </c>
       <c r="E4" s="22">
-        <v>629</v>
+        <v>651</v>
       </c>
       <c r="F4" s="22">
-        <v>839</v>
+        <v>876</v>
       </c>
       <c r="G4" s="22">
-        <v>3401</v>
+        <v>3578</v>
       </c>
       <c r="H4" s="22">
-        <v>823</v>
+        <v>860</v>
       </c>
       <c r="I4" s="22">
-        <v>333</v>
+        <v>350</v>
       </c>
       <c r="J4" s="22">
-        <v>143</v>
+        <v>154</v>
       </c>
       <c r="K4" s="22">
-        <v>6205</v>
+        <v>6522</v>
       </c>
       <c r="L4" s="22">
-        <v>1084</v>
+        <v>1135</v>
       </c>
       <c r="M4" s="22">
-        <v>1003</v>
+        <v>1054</v>
       </c>
       <c r="N4" s="22">
-        <v>1312</v>
+        <v>1369</v>
       </c>
       <c r="O4" s="22">
-        <v>351</v>
+        <v>376</v>
       </c>
       <c r="P4" s="22">
-        <v>2955</v>
+        <v>3128</v>
       </c>
       <c r="Q4" s="22">
-        <v>257</v>
+        <v>266</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.2">
@@ -9129,49 +10222,49 @@
         <v>19</v>
       </c>
       <c r="C5" s="22">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="D5" s="22">
-        <v>302</v>
+        <v>316</v>
       </c>
       <c r="E5" s="22">
-        <v>381</v>
+        <v>393</v>
       </c>
       <c r="F5" s="22">
-        <v>462</v>
+        <v>483</v>
       </c>
       <c r="G5" s="22">
-        <v>2157</v>
+        <v>2260</v>
       </c>
       <c r="H5" s="22">
-        <v>623</v>
+        <v>660</v>
       </c>
       <c r="I5" s="22">
-        <v>175</v>
+        <v>188</v>
       </c>
       <c r="J5" s="22">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="K5" s="22">
-        <v>7034</v>
+        <v>7462</v>
       </c>
       <c r="L5" s="22">
-        <v>894</v>
+        <v>952</v>
       </c>
       <c r="M5" s="22">
-        <v>724</v>
+        <v>756</v>
       </c>
       <c r="N5" s="22">
-        <v>838</v>
+        <v>880</v>
       </c>
       <c r="O5" s="22">
-        <v>169</v>
+        <v>180</v>
       </c>
       <c r="P5" s="22">
-        <v>1620</v>
+        <v>1730</v>
       </c>
       <c r="Q5" s="22">
-        <v>156</v>
+        <v>165</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.2">
@@ -9182,49 +10275,49 @@
         <v>20</v>
       </c>
       <c r="C6" s="22">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="D6" s="22">
-        <v>582</v>
+        <v>607</v>
       </c>
       <c r="E6" s="22">
-        <v>461</v>
+        <v>485</v>
       </c>
       <c r="F6" s="22">
-        <v>408</v>
+        <v>433</v>
       </c>
       <c r="G6" s="22">
-        <v>1097</v>
+        <v>1169</v>
       </c>
       <c r="H6" s="22">
-        <v>276</v>
+        <v>297</v>
       </c>
       <c r="I6" s="22">
+        <v>400</v>
+      </c>
+      <c r="J6" s="22">
+        <v>110</v>
+      </c>
+      <c r="K6" s="22">
+        <v>1749</v>
+      </c>
+      <c r="L6" s="22">
+        <v>245</v>
+      </c>
+      <c r="M6" s="22">
         <v>386</v>
       </c>
-      <c r="J6" s="22">
-        <v>100</v>
-      </c>
-      <c r="K6" s="22">
-        <v>1630</v>
-      </c>
-      <c r="L6" s="22">
-        <v>225</v>
-      </c>
-      <c r="M6" s="22">
-        <v>366</v>
-      </c>
       <c r="N6" s="22">
-        <v>623</v>
+        <v>675</v>
       </c>
       <c r="O6" s="22">
-        <v>149</v>
+        <v>168</v>
       </c>
       <c r="P6" s="22">
-        <v>1005</v>
+        <v>1094</v>
       </c>
       <c r="Q6" s="22">
-        <v>322</v>
+        <v>338</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.2">
@@ -9235,49 +10328,49 @@
         <v>21</v>
       </c>
       <c r="C7" s="22">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="D7" s="22">
-        <v>292</v>
+        <v>305</v>
       </c>
       <c r="E7" s="22">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="F7" s="22">
-        <v>326</v>
+        <v>342</v>
       </c>
       <c r="G7" s="22">
-        <v>840</v>
+        <v>889</v>
       </c>
       <c r="H7" s="22">
+        <v>253</v>
+      </c>
+      <c r="I7" s="22">
+        <v>195</v>
+      </c>
+      <c r="J7" s="22">
+        <v>60</v>
+      </c>
+      <c r="K7" s="22">
+        <v>1337</v>
+      </c>
+      <c r="L7" s="22">
+        <v>256</v>
+      </c>
+      <c r="M7" s="22">
         <v>241</v>
       </c>
-      <c r="I7" s="22">
-        <v>189</v>
-      </c>
-      <c r="J7" s="22">
-        <v>57</v>
-      </c>
-      <c r="K7" s="22">
-        <v>1245</v>
-      </c>
-      <c r="L7" s="22">
-        <v>230</v>
-      </c>
-      <c r="M7" s="22">
-        <v>232</v>
-      </c>
       <c r="N7" s="22">
-        <v>381</v>
+        <v>403</v>
       </c>
       <c r="O7" s="22">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="P7" s="22">
-        <v>669</v>
+        <v>705</v>
       </c>
       <c r="Q7" s="22">
-        <v>132</v>
+        <v>138</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.2">
@@ -9288,49 +10381,49 @@
         <v>22</v>
       </c>
       <c r="C8" s="22">
-        <v>272</v>
+        <v>283</v>
       </c>
       <c r="D8" s="22">
-        <v>506</v>
+        <v>546</v>
       </c>
       <c r="E8" s="22">
-        <v>387</v>
+        <v>411</v>
       </c>
       <c r="F8" s="22">
-        <v>594</v>
+        <v>618</v>
       </c>
       <c r="G8" s="22">
-        <v>1986</v>
+        <v>2073</v>
       </c>
       <c r="H8" s="22">
-        <v>571</v>
+        <v>591</v>
       </c>
       <c r="I8" s="22">
-        <v>457</v>
+        <v>472</v>
       </c>
       <c r="J8" s="22">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="K8" s="22">
-        <v>1388</v>
+        <v>1478</v>
       </c>
       <c r="L8" s="22">
-        <v>201</v>
+        <v>218</v>
       </c>
       <c r="M8" s="22">
-        <v>539</v>
+        <v>570</v>
       </c>
       <c r="N8" s="22">
-        <v>900</v>
+        <v>944</v>
       </c>
       <c r="O8" s="22">
-        <v>360</v>
+        <v>381</v>
       </c>
       <c r="P8" s="22">
-        <v>1464</v>
+        <v>1572</v>
       </c>
       <c r="Q8" s="22">
-        <v>336</v>
+        <v>354</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.2">
@@ -9341,46 +10434,46 @@
         <v>23</v>
       </c>
       <c r="C9" s="22">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D9" s="22">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="E9" s="22">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F9" s="22">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="G9" s="22">
-        <v>555</v>
+        <v>575</v>
       </c>
       <c r="H9" s="22">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="I9" s="22">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="J9" s="22" t="s">
+        <v>242</v>
+      </c>
+      <c r="K9" s="22">
+        <v>983</v>
+      </c>
+      <c r="L9" s="22">
         <v>240</v>
       </c>
-      <c r="K9" s="22">
-        <v>929</v>
-      </c>
-      <c r="L9" s="22">
-        <v>216</v>
-      </c>
       <c r="M9" s="22">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="N9" s="22">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="O9" s="22">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="P9" s="22">
-        <v>713</v>
+        <v>745</v>
       </c>
       <c r="Q9" s="22">
         <v>32</v>
@@ -9394,49 +10487,49 @@
         <v>24</v>
       </c>
       <c r="C10" s="22">
-        <v>399</v>
+        <v>438</v>
       </c>
       <c r="D10" s="22">
-        <v>922</v>
+        <v>972</v>
       </c>
       <c r="E10" s="22">
+        <v>1212</v>
+      </c>
+      <c r="F10" s="22">
+        <v>1235</v>
+      </c>
+      <c r="G10" s="22">
+        <v>4060</v>
+      </c>
+      <c r="H10" s="22">
+        <v>1409</v>
+      </c>
+      <c r="I10" s="22">
+        <v>698</v>
+      </c>
+      <c r="J10" s="22">
+        <v>461</v>
+      </c>
+      <c r="K10" s="22">
+        <v>8869</v>
+      </c>
+      <c r="L10" s="22">
         <v>1059</v>
       </c>
-      <c r="F10" s="22">
-        <v>1159</v>
-      </c>
-      <c r="G10" s="22">
-        <v>3832</v>
-      </c>
-      <c r="H10" s="22">
-        <v>1330</v>
-      </c>
-      <c r="I10" s="22">
-        <v>655</v>
-      </c>
-      <c r="J10" s="22">
-        <v>435</v>
-      </c>
-      <c r="K10" s="22">
-        <v>8374</v>
-      </c>
-      <c r="L10" s="22">
-        <v>970</v>
-      </c>
       <c r="M10" s="22">
-        <v>1597</v>
+        <v>1701</v>
       </c>
       <c r="N10" s="22">
-        <v>1776</v>
+        <v>1895</v>
       </c>
       <c r="O10" s="22">
-        <v>562</v>
+        <v>590</v>
       </c>
       <c r="P10" s="22">
-        <v>4089</v>
+        <v>4406</v>
       </c>
       <c r="Q10" s="22">
-        <v>433</v>
+        <v>453</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.2">
@@ -9447,49 +10540,49 @@
         <v>25</v>
       </c>
       <c r="C11" s="22">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="D11" s="22">
-        <v>782</v>
+        <v>816</v>
       </c>
       <c r="E11" s="22">
-        <v>786</v>
+        <v>826</v>
       </c>
       <c r="F11" s="22">
-        <v>1182</v>
+        <v>1239</v>
       </c>
       <c r="G11" s="22">
-        <v>4624</v>
+        <v>4898</v>
       </c>
       <c r="H11" s="22">
-        <v>1372</v>
+        <v>1446</v>
       </c>
       <c r="I11" s="22">
-        <v>578</v>
+        <v>606</v>
       </c>
       <c r="J11" s="22">
-        <v>200</v>
+        <v>212</v>
       </c>
       <c r="K11" s="22">
-        <v>6586</v>
+        <v>6917</v>
       </c>
       <c r="L11" s="22">
-        <v>1205</v>
+        <v>1293</v>
       </c>
       <c r="M11" s="22">
-        <v>1168</v>
+        <v>1238</v>
       </c>
       <c r="N11" s="22">
-        <v>1597</v>
+        <v>1727</v>
       </c>
       <c r="O11" s="22">
-        <v>367</v>
+        <v>407</v>
       </c>
       <c r="P11" s="22">
-        <v>3689</v>
+        <v>3949</v>
       </c>
       <c r="Q11" s="22">
-        <v>300</v>
+        <v>323</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.2">
@@ -9500,49 +10593,49 @@
         <v>26</v>
       </c>
       <c r="C12" s="22">
-        <v>666</v>
+        <v>676</v>
       </c>
       <c r="D12" s="22">
-        <v>1416</v>
+        <v>1472</v>
       </c>
       <c r="E12" s="22">
-        <v>1697</v>
+        <v>1754</v>
       </c>
       <c r="F12" s="22">
-        <v>2204</v>
+        <v>2276</v>
       </c>
       <c r="G12" s="22">
-        <v>6424</v>
+        <v>6608</v>
       </c>
       <c r="H12" s="22">
-        <v>2249</v>
+        <v>2334</v>
       </c>
       <c r="I12" s="22">
-        <v>1285</v>
+        <v>1324</v>
       </c>
       <c r="J12" s="22">
-        <v>485</v>
+        <v>506</v>
       </c>
       <c r="K12" s="22">
-        <v>9287</v>
+        <v>9530</v>
       </c>
       <c r="L12" s="22">
-        <v>1018</v>
+        <v>1043</v>
       </c>
       <c r="M12" s="22">
-        <v>1983</v>
+        <v>2046</v>
       </c>
       <c r="N12" s="22">
-        <v>2534</v>
+        <v>2649</v>
       </c>
       <c r="O12" s="22">
-        <v>675</v>
+        <v>712</v>
       </c>
       <c r="P12" s="22">
-        <v>6144</v>
+        <v>6433</v>
       </c>
       <c r="Q12" s="22">
-        <v>842</v>
+        <v>859</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.2">
@@ -9553,49 +10646,49 @@
         <v>27</v>
       </c>
       <c r="C13" s="22">
-        <v>459</v>
+        <v>477</v>
       </c>
       <c r="D13" s="22">
-        <v>1214</v>
+        <v>1269</v>
       </c>
       <c r="E13" s="22">
-        <v>1747</v>
+        <v>1844</v>
       </c>
       <c r="F13" s="22">
-        <v>2581</v>
+        <v>2652</v>
       </c>
       <c r="G13" s="22">
-        <v>5829</v>
+        <v>6061</v>
       </c>
       <c r="H13" s="22">
-        <v>2360</v>
+        <v>2424</v>
       </c>
       <c r="I13" s="22">
-        <v>1338</v>
+        <v>1381</v>
       </c>
       <c r="J13" s="22">
-        <v>777</v>
+        <v>823</v>
       </c>
       <c r="K13" s="22">
-        <v>9401</v>
+        <v>9668</v>
       </c>
       <c r="L13" s="22">
-        <v>1092</v>
+        <v>1139</v>
       </c>
       <c r="M13" s="22">
-        <v>2866</v>
+        <v>2969</v>
       </c>
       <c r="N13" s="22">
-        <v>2928</v>
+        <v>3063</v>
       </c>
       <c r="O13" s="22">
-        <v>1101</v>
+        <v>1174</v>
       </c>
       <c r="P13" s="22">
-        <v>6467</v>
+        <v>6787</v>
       </c>
       <c r="Q13" s="22">
-        <v>979</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.2">
@@ -9606,49 +10699,49 @@
         <v>28</v>
       </c>
       <c r="C14" s="22">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="D14" s="22">
-        <v>215</v>
+        <v>238</v>
       </c>
       <c r="E14" s="22">
-        <v>268</v>
+        <v>285</v>
       </c>
       <c r="F14" s="22">
-        <v>415</v>
+        <v>439</v>
       </c>
       <c r="G14" s="22">
-        <v>1124</v>
+        <v>1201</v>
       </c>
       <c r="H14" s="22">
-        <v>375</v>
+        <v>398</v>
       </c>
       <c r="I14" s="22">
-        <v>187</v>
+        <v>195</v>
       </c>
       <c r="J14" s="22">
-        <v>197</v>
+        <v>221</v>
       </c>
       <c r="K14" s="22">
-        <v>2209</v>
+        <v>2394</v>
       </c>
       <c r="L14" s="22">
-        <v>289</v>
+        <v>308</v>
       </c>
       <c r="M14" s="22">
-        <v>492</v>
+        <v>552</v>
       </c>
       <c r="N14" s="22">
-        <v>775</v>
+        <v>827</v>
       </c>
       <c r="O14" s="22">
-        <v>247</v>
+        <v>266</v>
       </c>
       <c r="P14" s="22">
-        <v>1593</v>
+        <v>1721</v>
       </c>
       <c r="Q14" s="22">
-        <v>144</v>
+        <v>152</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.2">
@@ -9659,49 +10752,49 @@
         <v>29</v>
       </c>
       <c r="C15" s="22">
-        <v>1221</v>
+        <v>1262</v>
       </c>
       <c r="D15" s="22">
-        <v>5460</v>
+        <v>5607</v>
       </c>
       <c r="E15" s="22">
-        <v>6277</v>
+        <v>6440</v>
       </c>
       <c r="F15" s="22">
-        <v>9893</v>
+        <v>10047</v>
       </c>
       <c r="G15" s="22">
-        <v>24016</v>
+        <v>24539</v>
       </c>
       <c r="H15" s="22">
-        <v>8067</v>
+        <v>8179</v>
       </c>
       <c r="I15" s="22">
-        <v>4333</v>
+        <v>4424</v>
       </c>
       <c r="J15" s="22">
-        <v>2192</v>
+        <v>2253</v>
       </c>
       <c r="K15" s="22">
-        <v>31678</v>
+        <v>32405</v>
       </c>
       <c r="L15" s="22">
-        <v>5501</v>
+        <v>5673</v>
       </c>
       <c r="M15" s="22">
-        <v>8513</v>
+        <v>8677</v>
       </c>
       <c r="N15" s="22">
-        <v>12588</v>
+        <v>12931</v>
       </c>
       <c r="O15" s="22">
-        <v>3244</v>
+        <v>3353</v>
       </c>
       <c r="P15" s="22">
-        <v>28042</v>
+        <v>28757</v>
       </c>
       <c r="Q15" s="22">
-        <v>2333</v>
+        <v>2404</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.2">
@@ -9712,49 +10805,49 @@
         <v>30</v>
       </c>
       <c r="C16" s="22">
-        <v>257</v>
+        <v>313</v>
       </c>
       <c r="D16" s="22">
-        <v>905</v>
+        <v>993</v>
       </c>
       <c r="E16" s="22">
-        <v>988</v>
+        <v>1092</v>
       </c>
       <c r="F16" s="22">
-        <v>1772</v>
+        <v>1869</v>
       </c>
       <c r="G16" s="22">
-        <v>3809</v>
+        <v>4132</v>
       </c>
       <c r="H16" s="22">
-        <v>1362</v>
+        <v>1424</v>
       </c>
       <c r="I16" s="22">
-        <v>664</v>
+        <v>724</v>
       </c>
       <c r="J16" s="22">
-        <v>477</v>
+        <v>513</v>
       </c>
       <c r="K16" s="22">
-        <v>5378</v>
+        <v>5650</v>
       </c>
       <c r="L16" s="22">
-        <v>1043</v>
+        <v>1085</v>
       </c>
       <c r="M16" s="22">
-        <v>1431</v>
+        <v>1555</v>
       </c>
       <c r="N16" s="22">
-        <v>2787</v>
+        <v>3026</v>
       </c>
       <c r="O16" s="22">
-        <v>937</v>
+        <v>1040</v>
       </c>
       <c r="P16" s="22">
-        <v>4637</v>
+        <v>5263</v>
       </c>
       <c r="Q16" s="22">
-        <v>517</v>
+        <v>566</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.2">
@@ -9765,49 +10858,49 @@
         <v>31</v>
       </c>
       <c r="C17" s="22">
-        <v>588</v>
+        <v>620</v>
       </c>
       <c r="D17" s="22">
-        <v>2214</v>
+        <v>2305</v>
       </c>
       <c r="E17" s="22">
-        <v>2643</v>
+        <v>2758</v>
       </c>
       <c r="F17" s="22">
-        <v>3819</v>
+        <v>3898</v>
       </c>
       <c r="G17" s="22">
-        <v>11719</v>
+        <v>12207</v>
       </c>
       <c r="H17" s="22">
-        <v>3731</v>
+        <v>3825</v>
       </c>
       <c r="I17" s="22">
-        <v>1810</v>
+        <v>1884</v>
       </c>
       <c r="J17" s="22">
-        <v>820</v>
+        <v>874</v>
       </c>
       <c r="K17" s="22">
-        <v>23535</v>
+        <v>24218</v>
       </c>
       <c r="L17" s="22">
-        <v>2227</v>
+        <v>2346</v>
       </c>
       <c r="M17" s="22">
-        <v>4559</v>
+        <v>4737</v>
       </c>
       <c r="N17" s="22">
-        <v>5232</v>
+        <v>5528</v>
       </c>
       <c r="O17" s="22">
-        <v>1429</v>
+        <v>1558</v>
       </c>
       <c r="P17" s="22">
-        <v>11506</v>
+        <v>12331</v>
       </c>
       <c r="Q17" s="22">
-        <v>1048</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.2">
@@ -9818,49 +10911,49 @@
         <v>32</v>
       </c>
       <c r="C18" s="22">
-        <v>808</v>
+        <v>852</v>
       </c>
       <c r="D18" s="22">
-        <v>2387</v>
+        <v>2480</v>
       </c>
       <c r="E18" s="22">
-        <v>2847</v>
+        <v>2980</v>
       </c>
       <c r="F18" s="22">
-        <v>4313</v>
+        <v>4451</v>
       </c>
       <c r="G18" s="22">
-        <v>11819</v>
+        <v>12484</v>
       </c>
       <c r="H18" s="22">
-        <v>3414</v>
+        <v>3542</v>
       </c>
       <c r="I18" s="22">
-        <v>2083</v>
+        <v>2168</v>
       </c>
       <c r="J18" s="22">
-        <v>1055</v>
+        <v>1106</v>
       </c>
       <c r="K18" s="22">
-        <v>21154</v>
+        <v>22163</v>
       </c>
       <c r="L18" s="22">
-        <v>2801</v>
+        <v>2936</v>
       </c>
       <c r="M18" s="22">
-        <v>4731</v>
+        <v>4948</v>
       </c>
       <c r="N18" s="22">
-        <v>6836</v>
+        <v>7230</v>
       </c>
       <c r="O18" s="22">
-        <v>1705</v>
+        <v>1841</v>
       </c>
       <c r="P18" s="22">
-        <v>13594</v>
+        <v>14514</v>
       </c>
       <c r="Q18" s="22">
-        <v>1607</v>
+        <v>1695</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.2">
@@ -9871,49 +10964,49 @@
         <v>33</v>
       </c>
       <c r="C19" s="22">
-        <v>1244</v>
+        <v>1321</v>
       </c>
       <c r="D19" s="22">
-        <v>3389</v>
+        <v>3521</v>
       </c>
       <c r="E19" s="22">
-        <v>4441</v>
+        <v>4625</v>
       </c>
       <c r="F19" s="22">
-        <v>5746</v>
+        <v>5947</v>
       </c>
       <c r="G19" s="22">
-        <v>15968</v>
+        <v>16802</v>
       </c>
       <c r="H19" s="22">
-        <v>4701</v>
+        <v>4864</v>
       </c>
       <c r="I19" s="22">
-        <v>2874</v>
+        <v>2989</v>
       </c>
       <c r="J19" s="22">
-        <v>1631</v>
+        <v>1716</v>
       </c>
       <c r="K19" s="22">
-        <v>22055</v>
+        <v>22922</v>
       </c>
       <c r="L19" s="22">
-        <v>2703</v>
+        <v>2860</v>
       </c>
       <c r="M19" s="22">
-        <v>5815</v>
+        <v>6081</v>
       </c>
       <c r="N19" s="22">
-        <v>8615</v>
+        <v>9082</v>
       </c>
       <c r="O19" s="22">
-        <v>3010</v>
+        <v>3257</v>
       </c>
       <c r="P19" s="22">
-        <v>17008</v>
+        <v>17988</v>
       </c>
       <c r="Q19" s="22">
-        <v>3072</v>
+        <v>3214</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.2">
@@ -9924,49 +11017,49 @@
         <v>34</v>
       </c>
       <c r="C20" s="22">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="D20" s="22">
-        <v>111</v>
+        <v>122</v>
       </c>
       <c r="E20" s="22">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="F20" s="22">
-        <v>191</v>
+        <v>219</v>
       </c>
       <c r="G20" s="22">
-        <v>127</v>
+        <v>149</v>
       </c>
       <c r="H20" s="22">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="I20" s="22">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="J20" s="22">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="K20" s="22">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="L20" s="22" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="M20" s="22">
-        <v>468</v>
+        <v>493</v>
       </c>
       <c r="N20" s="22">
-        <v>164</v>
+        <v>203</v>
       </c>
       <c r="O20" s="22">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="P20" s="22">
-        <v>168</v>
+        <v>212</v>
       </c>
       <c r="Q20" s="22">
-        <v>72</v>
+        <v>84</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.2">
@@ -9977,49 +11070,49 @@
         <v>35</v>
       </c>
       <c r="C21" s="22">
-        <v>1442</v>
+        <v>1527</v>
       </c>
       <c r="D21" s="22">
-        <v>1292</v>
+        <v>1402</v>
       </c>
       <c r="E21" s="22">
-        <v>1197</v>
+        <v>1327</v>
       </c>
       <c r="F21" s="22">
-        <v>1932</v>
+        <v>2060</v>
       </c>
       <c r="G21" s="22">
-        <v>4062</v>
+        <v>4408</v>
       </c>
       <c r="H21" s="22">
-        <v>1313</v>
+        <v>1395</v>
       </c>
       <c r="I21" s="22">
-        <v>668</v>
+        <v>747</v>
       </c>
       <c r="J21" s="22">
-        <v>692</v>
+        <v>757</v>
       </c>
       <c r="K21" s="22">
-        <v>4336</v>
+        <v>4636</v>
       </c>
       <c r="L21" s="22">
-        <v>466</v>
+        <v>503</v>
       </c>
       <c r="M21" s="22">
-        <v>1860</v>
+        <v>2047</v>
       </c>
       <c r="N21" s="22">
-        <v>2585</v>
+        <v>2824</v>
       </c>
       <c r="O21" s="22">
-        <v>929</v>
+        <v>1047</v>
       </c>
       <c r="P21" s="22">
-        <v>4793</v>
+        <v>5550</v>
       </c>
       <c r="Q21" s="22">
-        <v>783</v>
+        <v>859</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.2">
@@ -10030,49 +11123,49 @@
         <v>36</v>
       </c>
       <c r="C22" s="22">
-        <v>644</v>
+        <v>676</v>
       </c>
       <c r="D22" s="22">
-        <v>1662</v>
+        <v>1731</v>
       </c>
       <c r="E22" s="22">
-        <v>1366</v>
+        <v>1414</v>
       </c>
       <c r="F22" s="22">
-        <v>1998</v>
+        <v>2083</v>
       </c>
       <c r="G22" s="22">
-        <v>3819</v>
+        <v>4046</v>
       </c>
       <c r="H22" s="22">
-        <v>1333</v>
+        <v>1386</v>
       </c>
       <c r="I22" s="22">
-        <v>866</v>
+        <v>923</v>
       </c>
       <c r="J22" s="22">
-        <v>572</v>
+        <v>598</v>
       </c>
       <c r="K22" s="22">
-        <v>5662</v>
+        <v>5843</v>
       </c>
       <c r="L22" s="22">
-        <v>531</v>
+        <v>551</v>
       </c>
       <c r="M22" s="22">
-        <v>2002</v>
+        <v>2081</v>
       </c>
       <c r="N22" s="22">
-        <v>2314</v>
+        <v>2445</v>
       </c>
       <c r="O22" s="22">
-        <v>784</v>
+        <v>867</v>
       </c>
       <c r="P22" s="22">
-        <v>4725</v>
+        <v>5138</v>
       </c>
       <c r="Q22" s="22">
-        <v>1465</v>
+        <v>1508</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.2">
@@ -10083,49 +11176,49 @@
         <v>37</v>
       </c>
       <c r="C23" s="22">
-        <v>1179</v>
+        <v>1224</v>
       </c>
       <c r="D23" s="22">
-        <v>6684</v>
+        <v>6835</v>
       </c>
       <c r="E23" s="22">
-        <v>3478</v>
+        <v>3601</v>
       </c>
       <c r="F23" s="22">
-        <v>4315</v>
+        <v>4475</v>
       </c>
       <c r="G23" s="22">
-        <v>4569</v>
+        <v>4957</v>
       </c>
       <c r="H23" s="22">
-        <v>1444</v>
+        <v>1478</v>
       </c>
       <c r="I23" s="22">
-        <v>2077</v>
+        <v>2180</v>
       </c>
       <c r="J23" s="22">
-        <v>1331</v>
+        <v>1391</v>
       </c>
       <c r="K23" s="22">
-        <v>4364</v>
+        <v>4545</v>
       </c>
       <c r="L23" s="22">
-        <v>463</v>
+        <v>479</v>
       </c>
       <c r="M23" s="22">
-        <v>1633</v>
+        <v>1723</v>
       </c>
       <c r="N23" s="22">
-        <v>3179</v>
+        <v>3430</v>
       </c>
       <c r="O23" s="22">
-        <v>1463</v>
+        <v>1620</v>
       </c>
       <c r="P23" s="22">
-        <v>5718</v>
+        <v>6217</v>
       </c>
       <c r="Q23" s="22">
-        <v>5406</v>
+        <v>5539</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.2">
@@ -10136,49 +11229,49 @@
         <v>38</v>
       </c>
       <c r="C24" s="22">
-        <v>793</v>
+        <v>843</v>
       </c>
       <c r="D24" s="22">
-        <v>2120</v>
+        <v>2192</v>
       </c>
       <c r="E24" s="22">
-        <v>2320</v>
+        <v>2436</v>
       </c>
       <c r="F24" s="22">
-        <v>3245</v>
+        <v>3401</v>
       </c>
       <c r="G24" s="22">
-        <v>8022</v>
+        <v>8638</v>
       </c>
       <c r="H24" s="22">
-        <v>1746</v>
+        <v>1839</v>
       </c>
       <c r="I24" s="22">
-        <v>1310</v>
+        <v>1394</v>
       </c>
       <c r="J24" s="22">
-        <v>1215</v>
+        <v>1304</v>
       </c>
       <c r="K24" s="22">
-        <v>13635</v>
+        <v>14681</v>
       </c>
       <c r="L24" s="22">
-        <v>2815</v>
+        <v>2981</v>
       </c>
       <c r="M24" s="22">
-        <v>3274</v>
+        <v>3489</v>
       </c>
       <c r="N24" s="22">
-        <v>3770</v>
+        <v>4143</v>
       </c>
       <c r="O24" s="22">
-        <v>1886</v>
+        <v>2075</v>
       </c>
       <c r="P24" s="22">
-        <v>9057</v>
+        <v>9864</v>
       </c>
       <c r="Q24" s="22">
-        <v>2327</v>
+        <v>2488</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.2">
@@ -10189,49 +11282,49 @@
         <v>39</v>
       </c>
       <c r="C25" s="22" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="D25" s="22" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="E25" s="22" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="F25" s="22" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="G25" s="22">
+        <v>41</v>
+      </c>
+      <c r="H25" s="22" t="s">
+        <v>242</v>
+      </c>
+      <c r="I25" s="22" t="s">
+        <v>242</v>
+      </c>
+      <c r="J25" s="22" t="s">
+        <v>242</v>
+      </c>
+      <c r="K25" s="22">
+        <v>99</v>
+      </c>
+      <c r="L25" s="22" t="s">
+        <v>242</v>
+      </c>
+      <c r="M25" s="22">
+        <v>30</v>
+      </c>
+      <c r="N25" s="22">
         <v>38</v>
       </c>
-      <c r="H25" s="22" t="s">
-        <v>240</v>
-      </c>
-      <c r="I25" s="22" t="s">
-        <v>240</v>
-      </c>
-      <c r="J25" s="22" t="s">
-        <v>240</v>
-      </c>
-      <c r="K25" s="22">
-        <v>97</v>
-      </c>
-      <c r="L25" s="22" t="s">
-        <v>240</v>
-      </c>
-      <c r="M25" s="22">
-        <v>28</v>
-      </c>
-      <c r="N25" s="22">
-        <v>37</v>
-      </c>
       <c r="O25" s="22" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="P25" s="22">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="Q25" s="22" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.2">
@@ -10246,7 +11339,7 @@
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A29" s="4" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.2">
@@ -10276,36 +11369,37 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr>
-    <tabColor theme="5" tint="0.79998168889431442"/>
+    <tabColor theme="4" tint="0.79998168889431442"/>
   </sheetPr>
   <dimension ref="A1:P30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M30" sqref="M30"/>
+      <selection activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="45.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="13" width="13.83203125" customWidth="1"/>
+    <col min="2" max="15" width="8.6640625" customWidth="1"/>
+    <col min="16" max="16" width="8.83203125" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="19" x14ac:dyDescent="0.25">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="27" t="s">
         <v>232</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
-      <c r="I1" s="25"/>
-      <c r="J1" s="25"/>
-      <c r="K1" s="25"/>
-      <c r="L1" s="25"/>
-      <c r="M1" s="25"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="27"/>
+      <c r="J1" s="27"/>
+      <c r="K1" s="27"/>
+      <c r="L1" s="27"/>
+      <c r="M1" s="27"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
@@ -10350,6 +11444,12 @@
       <c r="N2" s="11" t="s">
         <v>238</v>
       </c>
+      <c r="O2" s="11" t="s">
+        <v>239</v>
+      </c>
+      <c r="P2" s="11" t="s">
+        <v>240</v>
+      </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
@@ -10394,8 +11494,12 @@
       <c r="N3" s="2">
         <v>4126</v>
       </c>
-      <c r="O3" s="2"/>
-      <c r="P3" s="2"/>
+      <c r="O3" s="2">
+        <v>3771</v>
+      </c>
+      <c r="P3" s="2">
+        <v>3361</v>
+      </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
@@ -10440,8 +11544,12 @@
       <c r="N4" s="2">
         <v>2977</v>
       </c>
-      <c r="O4" s="2"/>
-      <c r="P4" s="2"/>
+      <c r="O4" s="2">
+        <v>2655</v>
+      </c>
+      <c r="P4" s="2">
+        <v>2467</v>
+      </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
@@ -10486,8 +11594,12 @@
       <c r="N5" s="2">
         <v>28</v>
       </c>
-      <c r="O5" s="2"/>
-      <c r="P5" s="2"/>
+      <c r="O5" s="2">
+        <v>32</v>
+      </c>
+      <c r="P5" s="2">
+        <v>32</v>
+      </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
@@ -10532,8 +11644,12 @@
       <c r="N6" s="2">
         <v>623</v>
       </c>
-      <c r="O6" s="2"/>
-      <c r="P6" s="2"/>
+      <c r="O6" s="2">
+        <v>550</v>
+      </c>
+      <c r="P6" s="2">
+        <v>477</v>
+      </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
@@ -10578,8 +11694,12 @@
       <c r="N7" s="2">
         <v>847</v>
       </c>
-      <c r="O7" s="2"/>
-      <c r="P7" s="2"/>
+      <c r="O7" s="2">
+        <v>838</v>
+      </c>
+      <c r="P7" s="2">
+        <v>746</v>
+      </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
@@ -10624,8 +11744,12 @@
       <c r="N8" s="2">
         <v>1223</v>
       </c>
-      <c r="O8" s="2"/>
-      <c r="P8" s="2"/>
+      <c r="O8" s="2">
+        <v>1283</v>
+      </c>
+      <c r="P8" s="2">
+        <v>1615</v>
+      </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
@@ -10670,8 +11794,12 @@
       <c r="N9" s="2">
         <v>293</v>
       </c>
-      <c r="O9" s="2"/>
-      <c r="P9" s="2"/>
+      <c r="O9" s="2">
+        <v>255</v>
+      </c>
+      <c r="P9" s="2">
+        <v>211</v>
+      </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
@@ -10716,8 +11844,12 @@
       <c r="N10" s="2">
         <v>2736</v>
       </c>
-      <c r="O10" s="2"/>
-      <c r="P10" s="2"/>
+      <c r="O10" s="2">
+        <v>2463</v>
+      </c>
+      <c r="P10" s="2">
+        <v>2207</v>
+      </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
@@ -10762,8 +11894,12 @@
       <c r="N11" s="2">
         <v>324</v>
       </c>
-      <c r="O11" s="2"/>
-      <c r="P11" s="2"/>
+      <c r="O11" s="2">
+        <v>359</v>
+      </c>
+      <c r="P11" s="2">
+        <v>317</v>
+      </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
@@ -10808,8 +11944,12 @@
       <c r="N12" s="2">
         <v>96</v>
       </c>
-      <c r="O12" s="2"/>
-      <c r="P12" s="2"/>
+      <c r="O12" s="2">
+        <v>68</v>
+      </c>
+      <c r="P12" s="2">
+        <v>72</v>
+      </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
@@ -10854,8 +11994,12 @@
       <c r="N13" s="2">
         <v>2012</v>
       </c>
-      <c r="O13" s="2"/>
-      <c r="P13" s="2"/>
+      <c r="O13" s="2">
+        <v>1569</v>
+      </c>
+      <c r="P13" s="2">
+        <v>1305</v>
+      </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
@@ -10900,8 +12044,12 @@
       <c r="N14" s="2">
         <v>20</v>
       </c>
-      <c r="O14" s="2"/>
-      <c r="P14" s="2"/>
+      <c r="O14" s="2">
+        <v>11</v>
+      </c>
+      <c r="P14" s="2">
+        <v>15</v>
+      </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
@@ -10946,8 +12094,12 @@
       <c r="N15" s="2">
         <v>965</v>
       </c>
-      <c r="O15" s="2"/>
-      <c r="P15" s="2"/>
+      <c r="O15" s="2">
+        <v>891</v>
+      </c>
+      <c r="P15" s="2">
+        <v>860</v>
+      </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
@@ -10992,8 +12144,12 @@
       <c r="N16" s="2">
         <v>1165</v>
       </c>
-      <c r="O16" s="2"/>
-      <c r="P16" s="2"/>
+      <c r="O16" s="2">
+        <v>1051</v>
+      </c>
+      <c r="P16" s="2">
+        <v>976</v>
+      </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
@@ -11038,8 +12194,12 @@
       <c r="N17" s="2">
         <v>317</v>
       </c>
-      <c r="O17" s="2"/>
-      <c r="P17" s="2"/>
+      <c r="O17" s="2">
+        <v>306</v>
+      </c>
+      <c r="P17" s="2">
+        <v>268</v>
+      </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
@@ -11084,8 +12244,12 @@
       <c r="N18" s="2">
         <v>188</v>
       </c>
-      <c r="O18" s="2"/>
-      <c r="P18" s="2"/>
+      <c r="O18" s="2">
+        <v>217</v>
+      </c>
+      <c r="P18" s="2">
+        <v>189</v>
+      </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
@@ -11130,8 +12294,12 @@
       <c r="N19" s="2">
         <v>2953</v>
       </c>
-      <c r="O19" s="2"/>
-      <c r="P19" s="2"/>
+      <c r="O19" s="2">
+        <v>2771</v>
+      </c>
+      <c r="P19" s="2">
+        <v>2373</v>
+      </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
@@ -11176,8 +12344,12 @@
       <c r="N20" s="2">
         <v>862</v>
       </c>
-      <c r="O20" s="2"/>
-      <c r="P20" s="2"/>
+      <c r="O20" s="2">
+        <v>716</v>
+      </c>
+      <c r="P20" s="2">
+        <v>647</v>
+      </c>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
@@ -11222,8 +12394,12 @@
       <c r="N21" s="2">
         <v>14</v>
       </c>
-      <c r="O21" s="2"/>
-      <c r="P21" s="2"/>
+      <c r="O21" s="2">
+        <v>6</v>
+      </c>
+      <c r="P21" s="2">
+        <v>9</v>
+      </c>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
@@ -11268,8 +12444,12 @@
       <c r="N22" s="2">
         <v>584</v>
       </c>
-      <c r="O22" s="2"/>
-      <c r="P22" s="2"/>
+      <c r="O22" s="2">
+        <v>486</v>
+      </c>
+      <c r="P22" s="2">
+        <v>371</v>
+      </c>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B23" s="4"/>
@@ -11314,7 +12494,7 @@
       <c r="A30" s="4"/>
     </row>
   </sheetData>
-  <autoFilter ref="A2:N2" xr:uid="{00000000-0009-0000-0000-000004000000}"/>
+  <autoFilter ref="A2:P2" xr:uid="{00000000-0009-0000-0000-000004000000}"/>
   <mergeCells count="1">
     <mergeCell ref="A1:M1"/>
   </mergeCells>
@@ -11326,34 +12506,42 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr>
-    <tabColor theme="5" tint="0.79998168889431442"/>
+    <tabColor theme="4" tint="0.79998168889431442"/>
   </sheetPr>
-  <dimension ref="A1:N30"/>
+  <dimension ref="A1:P30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K31" sqref="K31"/>
+      <selection sqref="A1:P1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="45.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="13" width="13.33203125" customWidth="1"/>
+    <col min="2" max="15" width="8.1640625" customWidth="1"/>
+    <col min="16" max="16" width="8.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="19" x14ac:dyDescent="0.25">
-      <c r="A1" s="25" t="s">
+    <row r="1" spans="1:16" ht="19" x14ac:dyDescent="0.25">
+      <c r="A1" s="27" t="s">
         <v>233</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
-      <c r="I1" s="25"/>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="27"/>
+      <c r="J1" s="27"/>
+      <c r="K1" s="27"/>
+      <c r="L1" s="27"/>
+      <c r="M1" s="27"/>
+      <c r="N1" s="27"/>
+      <c r="O1" s="27"/>
+      <c r="P1" s="27"/>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>188</v>
       </c>
@@ -11396,8 +12584,14 @@
       <c r="N2" s="11" t="s">
         <v>238</v>
       </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O2" s="11" t="s">
+        <v>239</v>
+      </c>
+      <c r="P2" s="11" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>189</v>
       </c>
@@ -11440,8 +12634,14 @@
       <c r="N3" s="2">
         <v>92399</v>
       </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O3" s="2">
+        <v>91046</v>
+      </c>
+      <c r="P3" s="2">
+        <v>87001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>190</v>
       </c>
@@ -11484,8 +12684,14 @@
       <c r="N4" s="2">
         <v>35471</v>
       </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O4" s="2">
+        <v>35460</v>
+      </c>
+      <c r="P4" s="2">
+        <v>35507</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>191</v>
       </c>
@@ -11528,8 +12734,14 @@
       <c r="N5" s="2">
         <v>547</v>
       </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O5" s="2">
+        <v>506</v>
+      </c>
+      <c r="P5" s="2">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>192</v>
       </c>
@@ -11572,8 +12784,14 @@
       <c r="N6" s="2">
         <v>12720</v>
       </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O6" s="2">
+        <v>12674</v>
+      </c>
+      <c r="P6" s="2">
+        <v>12033</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>193</v>
       </c>
@@ -11616,8 +12834,14 @@
       <c r="N7" s="2">
         <v>13083</v>
       </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O7" s="2">
+        <v>12818</v>
+      </c>
+      <c r="P7" s="2">
+        <v>12594</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>194</v>
       </c>
@@ -11660,8 +12884,14 @@
       <c r="N8" s="2">
         <v>13590</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O8" s="2">
+        <v>13918</v>
+      </c>
+      <c r="P8" s="2">
+        <v>14180</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>195</v>
       </c>
@@ -11704,8 +12934,14 @@
       <c r="N9" s="2">
         <v>4274</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O9" s="2">
+        <v>4346</v>
+      </c>
+      <c r="P9" s="2">
+        <v>4307</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>196</v>
       </c>
@@ -11748,8 +12984,14 @@
       <c r="N10" s="2">
         <v>42275</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O10" s="2">
+        <v>40822</v>
+      </c>
+      <c r="P10" s="2">
+        <v>39744</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>197</v>
       </c>
@@ -11792,8 +13034,14 @@
       <c r="N11" s="2">
         <v>4172</v>
       </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="2">
+        <v>4253</v>
+      </c>
+      <c r="P11" s="2">
+        <v>4243</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>198</v>
       </c>
@@ -11836,8 +13084,14 @@
       <c r="N12" s="2">
         <v>2434</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O12" s="2">
+        <v>2356</v>
+      </c>
+      <c r="P12" s="2">
+        <v>2149</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>199</v>
       </c>
@@ -11880,8 +13134,14 @@
       <c r="N13" s="2">
         <v>20820</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O13" s="2">
+        <v>19138</v>
+      </c>
+      <c r="P13" s="2">
+        <v>17819</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>200</v>
       </c>
@@ -11924,8 +13184,14 @@
       <c r="N14" s="2">
         <v>780</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O14" s="2">
+        <v>777</v>
+      </c>
+      <c r="P14" s="2">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>201</v>
       </c>
@@ -11968,8 +13234,14 @@
       <c r="N15" s="2">
         <v>24845</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O15" s="2">
+        <v>23066</v>
+      </c>
+      <c r="P15" s="2">
+        <v>22055</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>202</v>
       </c>
@@ -12012,8 +13284,14 @@
       <c r="N16" s="2">
         <v>17147</v>
       </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="2">
+        <v>17225</v>
+      </c>
+      <c r="P16" s="2">
+        <v>17111</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>203</v>
       </c>
@@ -12056,8 +13334,14 @@
       <c r="N17" s="2">
         <v>4103</v>
       </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O17" s="2">
+        <v>4118</v>
+      </c>
+      <c r="P17" s="2">
+        <v>4194</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>204</v>
       </c>
@@ -12100,8 +13384,14 @@
       <c r="N18" s="2">
         <v>5685</v>
       </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O18" s="2">
+        <v>5558</v>
+      </c>
+      <c r="P18" s="2">
+        <v>5442</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>205</v>
       </c>
@@ -12144,8 +13434,14 @@
       <c r="N19" s="2">
         <v>52690</v>
       </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="2">
+        <v>50296</v>
+      </c>
+      <c r="P19" s="2">
+        <v>47729</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>206</v>
       </c>
@@ -12188,8 +13484,14 @@
       <c r="N20" s="2">
         <v>13592</v>
       </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O20" s="2">
+        <v>13433</v>
+      </c>
+      <c r="P20" s="2">
+        <v>13296</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>207</v>
       </c>
@@ -12232,8 +13534,14 @@
       <c r="N21" s="2">
         <v>93</v>
       </c>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O21" s="2">
+        <v>81</v>
+      </c>
+      <c r="P21" s="2">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>208</v>
       </c>
@@ -12276,53 +13584,59 @@
       <c r="N22" s="2">
         <v>7144</v>
       </c>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O22" s="2">
+        <v>7149</v>
+      </c>
+      <c r="P22" s="2">
+        <v>7123</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B23" s="4"/>
       <c r="C23" s="4"/>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A24" s="4" t="s">
         <v>40</v>
       </c>
       <c r="B24" s="4"/>
       <c r="C24" s="4"/>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A25" s="4" t="s">
         <v>209</v>
       </c>
       <c r="B25" s="4"/>
       <c r="C25" s="4"/>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A26" s="4" t="s">
         <v>216</v>
       </c>
       <c r="B26" s="4"/>
       <c r="C26" s="4"/>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A27" s="4" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B28" s="4"/>
       <c r="C28" s="4"/>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A29" s="4"/>
       <c r="B29" s="4"/>
       <c r="C29" s="4"/>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A30" s="4"/>
     </row>
   </sheetData>
-  <autoFilter ref="A2:N2" xr:uid="{00000000-0009-0000-0000-000005000000}"/>
+  <autoFilter ref="A2:P2" xr:uid="{00000000-0009-0000-0000-000005000000}"/>
   <mergeCells count="1">
-    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A1:P1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -12332,45 +13646,50 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <sheetPr>
-    <tabColor theme="5" tint="0.79998168889431442"/>
+    <tabColor theme="4" tint="0.79998168889431442"/>
   </sheetPr>
-  <dimension ref="A1:V135"/>
+  <dimension ref="A1:X135"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O2" sqref="O2"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="6.33203125" customWidth="1"/>
     <col min="2" max="2" width="15.5" customWidth="1"/>
-    <col min="3" max="10" width="11.1640625" style="2" customWidth="1"/>
-    <col min="11" max="11" width="11.1640625" style="13" customWidth="1"/>
-    <col min="12" max="15" width="11.1640625" style="2" customWidth="1"/>
-    <col min="16" max="16" width="5.83203125" style="2" customWidth="1"/>
-    <col min="22" max="22" width="6.6640625" customWidth="1"/>
+    <col min="3" max="3" width="8.33203125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="7.6640625" style="2" customWidth="1"/>
+    <col min="5" max="10" width="8.83203125" style="2" customWidth="1"/>
+    <col min="11" max="11" width="8.83203125" style="13" customWidth="1"/>
+    <col min="12" max="16" width="8.83203125" style="2" customWidth="1"/>
+    <col min="17" max="17" width="11.1640625" style="2" customWidth="1"/>
+    <col min="18" max="18" width="5.83203125" style="2" customWidth="1"/>
+    <col min="24" max="24" width="6.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="19" x14ac:dyDescent="0.25">
-      <c r="A1" s="25" t="s">
+    <row r="1" spans="1:24" ht="19" x14ac:dyDescent="0.25">
+      <c r="A1" s="27" t="s">
         <v>215</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
-      <c r="I1" s="25"/>
-      <c r="J1" s="25"/>
-      <c r="K1" s="25"/>
-      <c r="L1" s="25"/>
-      <c r="M1" s="25"/>
-      <c r="N1" s="25"/>
-      <c r="O1" s="23"/>
-    </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="27"/>
+      <c r="J1" s="27"/>
+      <c r="K1" s="27"/>
+      <c r="L1" s="27"/>
+      <c r="M1" s="27"/>
+      <c r="N1" s="27"/>
+      <c r="O1" s="27"/>
+      <c r="P1" s="27"/>
+      <c r="Q1" s="27"/>
+    </row>
+    <row r="2" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>46</v>
       </c>
@@ -12416,17 +13735,23 @@
       <c r="O2" s="11" t="s">
         <v>238</v>
       </c>
-      <c r="P2" s="11"/>
-      <c r="Q2" s="7" t="s">
+      <c r="P2" s="11" t="s">
+        <v>239</v>
+      </c>
+      <c r="Q2" s="11" t="s">
+        <v>240</v>
+      </c>
+      <c r="R2" s="11"/>
+      <c r="S2" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="R2" s="7"/>
-      <c r="S2" s="7"/>
       <c r="T2" s="7"/>
       <c r="U2" s="7"/>
       <c r="V2" s="7"/>
-    </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W2" s="7"/>
+      <c r="X2" s="7"/>
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
         <v>1</v>
       </c>
@@ -12472,16 +13797,22 @@
       <c r="O3" s="2">
         <v>1288</v>
       </c>
-      <c r="Q3" s="7" t="s">
+      <c r="P3" s="2">
+        <v>1203</v>
+      </c>
+      <c r="Q3" s="2">
+        <v>1087</v>
+      </c>
+      <c r="S3" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="R3" s="7"/>
-      <c r="S3" s="7"/>
       <c r="T3" s="7"/>
       <c r="U3" s="7"/>
       <c r="V3" s="7"/>
-    </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W3" s="7"/>
+      <c r="X3" s="7"/>
+    </row>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -12527,16 +13858,22 @@
       <c r="O4" s="2">
         <v>3847</v>
       </c>
-      <c r="Q4" s="26" t="s">
+      <c r="P4" s="2">
+        <v>3799</v>
+      </c>
+      <c r="Q4" s="2">
+        <v>3691</v>
+      </c>
+      <c r="S4" s="28" t="s">
         <v>219</v>
       </c>
-      <c r="R4" s="26"/>
-      <c r="S4" s="26"/>
-      <c r="T4" s="26"/>
-      <c r="U4" s="26"/>
-      <c r="V4" s="26"/>
-    </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="T4" s="28"/>
+      <c r="U4" s="28"/>
+      <c r="V4" s="28"/>
+      <c r="W4" s="28"/>
+      <c r="X4" s="28"/>
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>5</v>
       </c>
@@ -12582,14 +13919,20 @@
       <c r="O5" s="2">
         <v>270</v>
       </c>
-      <c r="Q5" s="26"/>
-      <c r="R5" s="26"/>
-      <c r="S5" s="26"/>
-      <c r="T5" s="26"/>
-      <c r="U5" s="26"/>
-      <c r="V5" s="26"/>
-    </row>
-    <row r="6" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P5" s="2">
+        <v>258</v>
+      </c>
+      <c r="Q5" s="2">
+        <v>251</v>
+      </c>
+      <c r="S5" s="28"/>
+      <c r="T5" s="28"/>
+      <c r="U5" s="28"/>
+      <c r="V5" s="28"/>
+      <c r="W5" s="28"/>
+      <c r="X5" s="28"/>
+    </row>
+    <row r="6" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <v>7</v>
       </c>
@@ -12635,16 +13978,22 @@
       <c r="O6" s="2">
         <v>421</v>
       </c>
-      <c r="Q6" s="26" t="s">
+      <c r="P6" s="2">
+        <v>397</v>
+      </c>
+      <c r="Q6" s="2">
+        <v>398</v>
+      </c>
+      <c r="S6" s="28" t="s">
         <v>185</v>
       </c>
-      <c r="R6" s="26"/>
-      <c r="S6" s="26"/>
-      <c r="T6" s="26"/>
-      <c r="U6" s="26"/>
-      <c r="V6" s="26"/>
-    </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="T6" s="28"/>
+      <c r="U6" s="28"/>
+      <c r="V6" s="28"/>
+      <c r="W6" s="28"/>
+      <c r="X6" s="28"/>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <v>9</v>
       </c>
@@ -12690,14 +14039,20 @@
       <c r="O7" s="2">
         <v>1004</v>
       </c>
-      <c r="Q7" s="26"/>
-      <c r="R7" s="26"/>
-      <c r="S7" s="26"/>
-      <c r="T7" s="26"/>
-      <c r="U7" s="26"/>
-      <c r="V7" s="26"/>
-    </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="P7" s="2">
+        <v>998</v>
+      </c>
+      <c r="Q7" s="2">
+        <v>966</v>
+      </c>
+      <c r="S7" s="28"/>
+      <c r="T7" s="28"/>
+      <c r="U7" s="28"/>
+      <c r="V7" s="28"/>
+      <c r="W7" s="28"/>
+      <c r="X7" s="28"/>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
         <v>11</v>
       </c>
@@ -12743,14 +14098,20 @@
       <c r="O8" s="2">
         <v>320</v>
       </c>
-      <c r="Q8" s="26"/>
-      <c r="R8" s="26"/>
-      <c r="S8" s="26"/>
-      <c r="T8" s="26"/>
-      <c r="U8" s="26"/>
-      <c r="V8" s="26"/>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="P8" s="2">
+        <v>315</v>
+      </c>
+      <c r="Q8" s="2">
+        <v>307</v>
+      </c>
+      <c r="S8" s="28"/>
+      <c r="T8" s="28"/>
+      <c r="U8" s="28"/>
+      <c r="V8" s="28"/>
+      <c r="W8" s="28"/>
+      <c r="X8" s="28"/>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
         <v>13</v>
       </c>
@@ -12796,14 +14157,20 @@
       <c r="O9" s="2">
         <v>6395</v>
       </c>
-      <c r="Q9" s="26"/>
-      <c r="R9" s="26"/>
-      <c r="S9" s="26"/>
-      <c r="T9" s="26"/>
-      <c r="U9" s="26"/>
-      <c r="V9" s="26"/>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="P9" s="2">
+        <v>5888</v>
+      </c>
+      <c r="Q9" s="2">
+        <v>5803</v>
+      </c>
+      <c r="S9" s="28"/>
+      <c r="T9" s="28"/>
+      <c r="U9" s="28"/>
+      <c r="V9" s="28"/>
+      <c r="W9" s="28"/>
+      <c r="X9" s="28"/>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <v>15</v>
       </c>
@@ -12849,8 +14216,14 @@
       <c r="O10" s="2">
         <v>1506</v>
       </c>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="P10" s="2">
+        <v>1455</v>
+      </c>
+      <c r="Q10" s="2">
+        <v>1375</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>17</v>
       </c>
@@ -12896,8 +14269,14 @@
       <c r="O11" s="2">
         <v>496</v>
       </c>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="P11" s="2">
+        <v>487</v>
+      </c>
+      <c r="Q11" s="2">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <v>19</v>
       </c>
@@ -12943,8 +14322,14 @@
       <c r="O12" s="2">
         <v>2127</v>
       </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="P12" s="2">
+        <v>2102</v>
+      </c>
+      <c r="Q12" s="2">
+        <v>2004</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <v>21</v>
       </c>
@@ -12990,8 +14375,14 @@
       <c r="O13" s="2">
         <v>191</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="P13" s="2">
+        <v>190</v>
+      </c>
+      <c r="Q13" s="2">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
         <v>23</v>
       </c>
@@ -13037,8 +14428,14 @@
       <c r="O14" s="2">
         <v>989</v>
       </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="P14" s="2">
+        <v>917</v>
+      </c>
+      <c r="Q14" s="2">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
         <v>25</v>
       </c>
@@ -13084,8 +14481,14 @@
       <c r="O15" s="2">
         <v>571</v>
       </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="P15" s="2">
+        <v>560</v>
+      </c>
+      <c r="Q15" s="2">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
         <v>27</v>
       </c>
@@ -13131,8 +14534,14 @@
       <c r="O16" s="2">
         <v>485</v>
       </c>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="2">
+        <v>470</v>
+      </c>
+      <c r="Q16" s="2">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
         <v>29</v>
       </c>
@@ -13178,8 +14587,14 @@
       <c r="O17" s="2">
         <v>460</v>
       </c>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P17" s="2">
+        <v>454</v>
+      </c>
+      <c r="Q17" s="2">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
         <v>31</v>
       </c>
@@ -13225,8 +14640,14 @@
       <c r="O18" s="2">
         <v>1271</v>
       </c>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P18" s="2">
+        <v>1327</v>
+      </c>
+      <c r="Q18" s="2">
+        <v>1239</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
         <v>33</v>
       </c>
@@ -13272,8 +14693,14 @@
       <c r="O19" s="2">
         <v>1343</v>
       </c>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="2">
+        <v>1299</v>
+      </c>
+      <c r="Q19" s="2">
+        <v>1285</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A20" s="3">
         <v>35</v>
       </c>
@@ -13319,8 +14746,14 @@
       <c r="O20" s="2">
         <v>1664</v>
       </c>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P20" s="2">
+        <v>1647</v>
+      </c>
+      <c r="Q20" s="2">
+        <v>1556</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A21" s="3">
         <v>36</v>
       </c>
@@ -13366,8 +14799,14 @@
       <c r="O21" s="2">
         <v>264</v>
       </c>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P21" s="2">
+        <v>263</v>
+      </c>
+      <c r="Q21" s="2">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A22" s="3">
         <v>37</v>
       </c>
@@ -13413,8 +14852,14 @@
       <c r="O22" s="2">
         <v>348</v>
       </c>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P22" s="2">
+        <v>348</v>
+      </c>
+      <c r="Q22" s="2">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A23" s="3">
         <v>41</v>
       </c>
@@ -13460,8 +14905,14 @@
       <c r="O23" s="2">
         <v>15066</v>
       </c>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P23" s="2">
+        <v>14939</v>
+      </c>
+      <c r="Q23" s="2">
+        <v>14387</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A24" s="3">
         <v>43</v>
       </c>
@@ -13507,8 +14958,14 @@
       <c r="O24" s="2">
         <v>512</v>
       </c>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P24" s="2">
+        <v>480</v>
+      </c>
+      <c r="Q24" s="2">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A25" s="3">
         <v>45</v>
       </c>
@@ -13554,8 +15011,14 @@
       <c r="O25" s="2">
         <v>146</v>
       </c>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P25" s="2">
+        <v>122</v>
+      </c>
+      <c r="Q25" s="2">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A26" s="3">
         <v>47</v>
       </c>
@@ -13601,8 +15064,14 @@
       <c r="O26" s="2">
         <v>1832</v>
       </c>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P26" s="2">
+        <v>1709</v>
+      </c>
+      <c r="Q26" s="2">
+        <v>1607</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A27" s="3">
         <v>49</v>
       </c>
@@ -13648,8 +15117,14 @@
       <c r="O27" s="2">
         <v>218</v>
       </c>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P27" s="2">
+        <v>216</v>
+      </c>
+      <c r="Q27" s="2">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A28" s="3">
         <v>51</v>
       </c>
@@ -13695,8 +15170,14 @@
       <c r="O28" s="2">
         <v>333</v>
       </c>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P28" s="2">
+        <v>313</v>
+      </c>
+      <c r="Q28" s="2">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A29" s="3">
         <v>53</v>
       </c>
@@ -13742,8 +15223,14 @@
       <c r="O29" s="2">
         <v>499</v>
       </c>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P29" s="2">
+        <v>494</v>
+      </c>
+      <c r="Q29" s="2">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A30" s="3">
         <v>57</v>
       </c>
@@ -13789,8 +15276,14 @@
       <c r="O30" s="2">
         <v>467</v>
       </c>
-    </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P30" s="2">
+        <v>467</v>
+      </c>
+      <c r="Q30" s="2">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A31" s="3">
         <v>59</v>
       </c>
@@ -13836,8 +15329,14 @@
       <c r="O31" s="2">
         <v>49347</v>
       </c>
-    </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P31" s="2">
+        <v>46790</v>
+      </c>
+      <c r="Q31" s="2">
+        <v>45558</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A32" s="3">
         <v>61</v>
       </c>
@@ -13883,8 +15382,14 @@
       <c r="O32" s="2">
         <v>2347</v>
       </c>
-    </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P32" s="2">
+        <v>2179</v>
+      </c>
+      <c r="Q32" s="2">
+        <v>2084</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A33" s="3">
         <v>63</v>
       </c>
@@ -13930,8 +15435,14 @@
       <c r="O33" s="2">
         <v>505</v>
       </c>
-    </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P33" s="2">
+        <v>472</v>
+      </c>
+      <c r="Q33" s="2">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A34" s="3">
         <v>65</v>
       </c>
@@ -13977,8 +15488,14 @@
       <c r="O34" s="2">
         <v>1003</v>
       </c>
-    </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P34" s="2">
+        <v>968</v>
+      </c>
+      <c r="Q34" s="2">
+        <v>988</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A35" s="3">
         <v>67</v>
       </c>
@@ -14024,8 +15541,14 @@
       <c r="O35" s="2">
         <v>1842</v>
       </c>
-    </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P35" s="2">
+        <v>1614</v>
+      </c>
+      <c r="Q35" s="2">
+        <v>1595</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A36" s="3">
         <v>69</v>
       </c>
@@ -14071,8 +15594,14 @@
       <c r="O36" s="2">
         <v>3180</v>
       </c>
-    </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P36" s="2">
+        <v>2949</v>
+      </c>
+      <c r="Q36" s="2">
+        <v>2771</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A37" s="3">
         <v>71</v>
       </c>
@@ -14118,8 +15647,14 @@
       <c r="O37" s="2">
         <v>664</v>
       </c>
-    </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P37" s="2">
+        <v>631</v>
+      </c>
+      <c r="Q37" s="2">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A38" s="3">
         <v>73</v>
       </c>
@@ -14165,8 +15700,14 @@
       <c r="O38" s="2">
         <v>1355</v>
       </c>
-    </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P38" s="2">
+        <v>1311</v>
+      </c>
+      <c r="Q38" s="2">
+        <v>1238</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A39" s="3">
         <v>75</v>
       </c>
@@ -14212,8 +15753,14 @@
       <c r="O39" s="2">
         <v>611</v>
       </c>
-    </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="2">
+        <v>587</v>
+      </c>
+      <c r="Q39" s="2">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A40" s="3">
         <v>77</v>
       </c>
@@ -14259,8 +15806,14 @@
       <c r="O40" s="2">
         <v>349</v>
       </c>
-    </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="2">
+        <v>331</v>
+      </c>
+      <c r="Q40" s="2">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A41" s="3">
         <v>79</v>
       </c>
@@ -14306,8 +15859,14 @@
       <c r="O41" s="2">
         <v>776</v>
       </c>
-    </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P41" s="2">
+        <v>784</v>
+      </c>
+      <c r="Q41" s="2">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A42" s="3">
         <v>81</v>
       </c>
@@ -14353,8 +15912,14 @@
       <c r="O42" s="2">
         <v>750</v>
       </c>
-    </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P42" s="2">
+        <v>713</v>
+      </c>
+      <c r="Q42" s="2">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A43" s="3">
         <v>83</v>
       </c>
@@ -14400,8 +15965,14 @@
       <c r="O43" s="2">
         <v>1116</v>
       </c>
-    </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P43" s="2">
+        <v>1105</v>
+      </c>
+      <c r="Q43" s="2">
+        <v>1095</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A44" s="3">
         <v>85</v>
       </c>
@@ -14447,8 +16018,14 @@
       <c r="O44" s="2">
         <v>3846</v>
       </c>
-    </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P44" s="2">
+        <v>3737</v>
+      </c>
+      <c r="Q44" s="2">
+        <v>3582</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A45" s="3">
         <v>87</v>
       </c>
@@ -14494,8 +16071,14 @@
       <c r="O45" s="2">
         <v>15772</v>
       </c>
-    </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P45" s="2">
+        <v>15427</v>
+      </c>
+      <c r="Q45" s="2">
+        <v>14955</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A46" s="3">
         <v>89</v>
       </c>
@@ -14541,8 +16124,14 @@
       <c r="O46" s="2">
         <v>3230</v>
       </c>
-    </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P46" s="2">
+        <v>3035</v>
+      </c>
+      <c r="Q46" s="2">
+        <v>3010</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A47" s="3">
         <v>91</v>
       </c>
@@ -14588,8 +16177,14 @@
       <c r="O47" s="2">
         <v>41</v>
       </c>
-    </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P47" s="2">
+        <v>44</v>
+      </c>
+      <c r="Q47" s="2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A48" s="3">
         <v>93</v>
       </c>
@@ -14635,8 +16230,14 @@
       <c r="O48" s="2">
         <v>1105</v>
       </c>
-    </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P48" s="2">
+        <v>1121</v>
+      </c>
+      <c r="Q48" s="2">
+        <v>1086</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A49" s="3">
         <v>95</v>
       </c>
@@ -14682,8 +16283,14 @@
       <c r="O49" s="2">
         <v>5392</v>
       </c>
-    </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P49" s="2">
+        <v>5291</v>
+      </c>
+      <c r="Q49" s="2">
+        <v>5172</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A50" s="3">
         <v>97</v>
       </c>
@@ -14729,8 +16336,14 @@
       <c r="O50" s="2">
         <v>234</v>
       </c>
-    </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P50" s="2">
+        <v>241</v>
+      </c>
+      <c r="Q50" s="2">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A51" s="3">
         <v>99</v>
       </c>
@@ -14776,8 +16389,14 @@
       <c r="O51" s="2">
         <v>694</v>
       </c>
-    </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P51" s="2">
+        <v>670</v>
+      </c>
+      <c r="Q51" s="2">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="52" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A52" s="3">
         <v>101</v>
       </c>
@@ -14823,8 +16442,14 @@
       <c r="O52" s="2">
         <v>681</v>
       </c>
-    </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P52" s="2">
+        <v>638</v>
+      </c>
+      <c r="Q52" s="2">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="53" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A53" s="3">
         <v>103</v>
       </c>
@@ -14870,8 +16495,14 @@
       <c r="O53" s="2">
         <v>377</v>
       </c>
-    </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P53" s="2">
+        <v>363</v>
+      </c>
+      <c r="Q53" s="2">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="54" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A54" s="3">
         <v>105</v>
       </c>
@@ -14917,8 +16548,14 @@
       <c r="O54" s="2">
         <v>453</v>
       </c>
-    </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P54" s="2">
+        <v>410</v>
+      </c>
+      <c r="Q54" s="2">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="55" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A55" s="3">
         <v>107</v>
       </c>
@@ -14964,8 +16601,14 @@
       <c r="O55" s="2">
         <v>17464</v>
       </c>
-    </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="2">
+        <v>16695</v>
+      </c>
+      <c r="Q55" s="2">
+        <v>16271</v>
+      </c>
+    </row>
+    <row r="56" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A56" s="3">
         <v>109</v>
       </c>
@@ -15011,8 +16654,14 @@
       <c r="O56" s="2">
         <v>1200</v>
       </c>
-    </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="2">
+        <v>1196</v>
+      </c>
+      <c r="Q56" s="2">
+        <v>1153</v>
+      </c>
+    </row>
+    <row r="57" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A57" s="3">
         <v>111</v>
       </c>
@@ -15058,8 +16707,14 @@
       <c r="O57" s="2">
         <v>252</v>
       </c>
-    </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P57" s="2">
+        <v>252</v>
+      </c>
+      <c r="Q57" s="2">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="58" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A58" s="3">
         <v>113</v>
       </c>
@@ -15105,8 +16760,14 @@
       <c r="O58" s="2">
         <v>317</v>
       </c>
-    </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P58" s="2">
+        <v>322</v>
+      </c>
+      <c r="Q58" s="2">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="59" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A59" s="3">
         <v>115</v>
       </c>
@@ -15152,8 +16813,14 @@
       <c r="O59" s="2">
         <v>260</v>
       </c>
-    </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P59" s="2">
+        <v>253</v>
+      </c>
+      <c r="Q59" s="2">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="60" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A60" s="3">
         <v>117</v>
       </c>
@@ -15199,8 +16866,14 @@
       <c r="O60" s="2">
         <v>1030</v>
       </c>
-    </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P60" s="2">
+        <v>972</v>
+      </c>
+      <c r="Q60" s="2">
+        <v>941</v>
+      </c>
+    </row>
+    <row r="61" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A61" s="3">
         <v>119</v>
       </c>
@@ -15246,8 +16919,14 @@
       <c r="O61" s="2">
         <v>389</v>
       </c>
-    </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P61" s="2">
+        <v>381</v>
+      </c>
+      <c r="Q61" s="2">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="62" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A62" s="3">
         <v>121</v>
       </c>
@@ -15293,8 +16972,14 @@
       <c r="O62" s="2">
         <v>2977</v>
       </c>
-    </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P62" s="2">
+        <v>2780</v>
+      </c>
+      <c r="Q62" s="2">
+        <v>2669</v>
+      </c>
+    </row>
+    <row r="63" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A63" s="3">
         <v>125</v>
       </c>
@@ -15340,8 +17025,14 @@
       <c r="O63" s="2">
         <v>667</v>
       </c>
-    </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P63" s="2">
+        <v>643</v>
+      </c>
+      <c r="Q63" s="2">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="64" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A64" s="3">
         <v>127</v>
       </c>
@@ -15387,8 +17078,14 @@
       <c r="O64" s="2">
         <v>912</v>
       </c>
-    </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P64" s="2">
+        <v>910</v>
+      </c>
+      <c r="Q64" s="2">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="65" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A65" s="3">
         <v>131</v>
       </c>
@@ -15434,8 +17131,14 @@
       <c r="O65" s="2">
         <v>566</v>
       </c>
-    </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P65" s="2">
+        <v>550</v>
+      </c>
+      <c r="Q65" s="2">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="66" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A66" s="3">
         <v>133</v>
       </c>
@@ -15481,8 +17184,14 @@
       <c r="O66" s="2">
         <v>452</v>
       </c>
-    </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P66" s="2">
+        <v>418</v>
+      </c>
+      <c r="Q66" s="2">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="67" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A67" s="3">
         <v>135</v>
       </c>
@@ -15528,8 +17237,14 @@
       <c r="O67" s="2">
         <v>426</v>
       </c>
-    </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="2">
+        <v>427</v>
+      </c>
+      <c r="Q67" s="2">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="68" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A68" s="3">
         <v>137</v>
       </c>
@@ -15575,8 +17290,14 @@
       <c r="O68" s="2">
         <v>1709</v>
       </c>
-    </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P68" s="2">
+        <v>1610</v>
+      </c>
+      <c r="Q68" s="2">
+        <v>1551</v>
+      </c>
+    </row>
+    <row r="69" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A69" s="3">
         <v>139</v>
       </c>
@@ -15622,8 +17343,14 @@
       <c r="O69" s="2">
         <v>1235</v>
       </c>
-    </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P69" s="2">
+        <v>1190</v>
+      </c>
+      <c r="Q69" s="2">
+        <v>1094</v>
+      </c>
+    </row>
+    <row r="70" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A70" s="3">
         <v>141</v>
       </c>
@@ -15669,8 +17396,14 @@
       <c r="O70" s="2">
         <v>543</v>
       </c>
-    </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P70" s="2">
+        <v>397</v>
+      </c>
+      <c r="Q70" s="2">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="71" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A71" s="3">
         <v>143</v>
       </c>
@@ -15716,8 +17449,14 @@
       <c r="O71" s="2">
         <v>1652</v>
       </c>
-    </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P71" s="2">
+        <v>1702</v>
+      </c>
+      <c r="Q71" s="2">
+        <v>1508</v>
+      </c>
+    </row>
+    <row r="72" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A72" s="3">
         <v>145</v>
       </c>
@@ -15763,8 +17502,14 @@
       <c r="O72" s="2">
         <v>872</v>
       </c>
-    </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P72" s="2">
+        <v>877</v>
+      </c>
+      <c r="Q72" s="2">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="73" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A73" s="3">
         <v>147</v>
       </c>
@@ -15810,8 +17555,14 @@
       <c r="O73" s="2">
         <v>966</v>
       </c>
-    </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P73" s="2">
+        <v>978</v>
+      </c>
+      <c r="Q73" s="2">
+        <v>988</v>
+      </c>
+    </row>
+    <row r="74" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A74" s="3">
         <v>149</v>
       </c>
@@ -15857,8 +17608,14 @@
       <c r="O74" s="2">
         <v>951</v>
       </c>
-    </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P74" s="2">
+        <v>950</v>
+      </c>
+      <c r="Q74" s="2">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="75" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A75" s="3">
         <v>153</v>
       </c>
@@ -15904,8 +17661,14 @@
       <c r="O75" s="2">
         <v>24151</v>
       </c>
-    </row>
-    <row r="76" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P75" s="2">
+        <v>22974</v>
+      </c>
+      <c r="Q75" s="2">
+        <v>22237</v>
+      </c>
+    </row>
+    <row r="76" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A76" s="3">
         <v>155</v>
       </c>
@@ -15951,8 +17714,14 @@
       <c r="O76" s="2">
         <v>1578</v>
       </c>
-    </row>
-    <row r="77" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P76" s="2">
+        <v>1531</v>
+      </c>
+      <c r="Q76" s="2">
+        <v>1324</v>
+      </c>
+    </row>
+    <row r="77" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A77" s="3">
         <v>157</v>
       </c>
@@ -15998,8 +17767,14 @@
       <c r="O77" s="2">
         <v>156</v>
       </c>
-    </row>
-    <row r="78" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P77" s="2">
+        <v>139</v>
+      </c>
+      <c r="Q77" s="2">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="78" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A78" s="3">
         <v>159</v>
       </c>
@@ -16045,8 +17820,14 @@
       <c r="O78" s="2">
         <v>286</v>
       </c>
-    </row>
-    <row r="79" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P78" s="2">
+        <v>285</v>
+      </c>
+      <c r="Q78" s="2">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="79" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A79" s="3">
         <v>161</v>
       </c>
@@ -16092,8 +17873,14 @@
       <c r="O79" s="2">
         <v>3499</v>
       </c>
-    </row>
-    <row r="80" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P79" s="2">
+        <v>3237</v>
+      </c>
+      <c r="Q79" s="2">
+        <v>3080</v>
+      </c>
+    </row>
+    <row r="80" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A80" s="3">
         <v>163</v>
       </c>
@@ -16139,8 +17926,14 @@
       <c r="O80" s="2">
         <v>996</v>
       </c>
-    </row>
-    <row r="81" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P80" s="2">
+        <v>855</v>
+      </c>
+      <c r="Q80" s="2">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="81" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A81" s="3">
         <v>165</v>
       </c>
@@ -16186,8 +17979,14 @@
       <c r="O81" s="2">
         <v>2321</v>
       </c>
-    </row>
-    <row r="82" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P81" s="2">
+        <v>2236</v>
+      </c>
+      <c r="Q81" s="2">
+        <v>2063</v>
+      </c>
+    </row>
+    <row r="82" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A82" s="3">
         <v>167</v>
       </c>
@@ -16233,8 +18032,14 @@
       <c r="O82" s="2">
         <v>754</v>
       </c>
-    </row>
-    <row r="83" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="2">
+        <v>720</v>
+      </c>
+      <c r="Q82" s="2">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="83" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A83" s="3">
         <v>169</v>
       </c>
@@ -16280,8 +18085,14 @@
       <c r="O83" s="2">
         <v>376</v>
       </c>
-    </row>
-    <row r="84" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P83" s="2">
+        <v>307</v>
+      </c>
+      <c r="Q83" s="2">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="84" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A84" s="3">
         <v>171</v>
       </c>
@@ -16327,8 +18138,14 @@
       <c r="O84" s="2">
         <v>1742</v>
       </c>
-    </row>
-    <row r="85" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P84" s="2">
+        <v>1673</v>
+      </c>
+      <c r="Q84" s="2">
+        <v>1507</v>
+      </c>
+    </row>
+    <row r="85" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A85" s="3">
         <v>173</v>
       </c>
@@ -16374,8 +18191,14 @@
       <c r="O85" s="2">
         <v>1103</v>
       </c>
-    </row>
-    <row r="86" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P85" s="2">
+        <v>1087</v>
+      </c>
+      <c r="Q85" s="2">
+        <v>1062</v>
+      </c>
+    </row>
+    <row r="86" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A86" s="3">
         <v>175</v>
       </c>
@@ -16421,8 +18244,14 @@
       <c r="O86" s="2">
         <v>392</v>
       </c>
-    </row>
-    <row r="87" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P86" s="2">
+        <v>358</v>
+      </c>
+      <c r="Q86" s="2">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="87" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A87" s="3">
         <v>177</v>
       </c>
@@ -16468,8 +18297,14 @@
       <c r="O87" s="2">
         <v>5605</v>
       </c>
-    </row>
-    <row r="88" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P87" s="2">
+        <v>5324</v>
+      </c>
+      <c r="Q87" s="2">
+        <v>5141</v>
+      </c>
+    </row>
+    <row r="88" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A88" s="3">
         <v>179</v>
       </c>
@@ -16515,8 +18350,14 @@
       <c r="O88" s="2">
         <v>5571</v>
       </c>
-    </row>
-    <row r="89" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P88" s="2">
+        <v>5259</v>
+      </c>
+      <c r="Q88" s="2">
+        <v>5112</v>
+      </c>
+    </row>
+    <row r="89" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A89" s="3">
         <v>181</v>
       </c>
@@ -16562,8 +18403,14 @@
       <c r="O89" s="2">
         <v>228</v>
       </c>
-    </row>
-    <row r="90" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P89" s="2">
+        <v>224</v>
+      </c>
+      <c r="Q89" s="2">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="90" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A90" s="3">
         <v>183</v>
       </c>
@@ -16609,8 +18456,14 @@
       <c r="O90" s="2">
         <v>378</v>
       </c>
-    </row>
-    <row r="91" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="2">
+        <v>387</v>
+      </c>
+      <c r="Q90" s="2">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="91" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A91" s="3">
         <v>185</v>
       </c>
@@ -16656,8 +18509,14 @@
       <c r="O91" s="2">
         <v>1341</v>
       </c>
-    </row>
-    <row r="92" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P91" s="2">
+        <v>1321</v>
+      </c>
+      <c r="Q91" s="2">
+        <v>1303</v>
+      </c>
+    </row>
+    <row r="92" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A92" s="3">
         <v>187</v>
       </c>
@@ -16703,8 +18562,14 @@
       <c r="O92" s="2">
         <v>1679</v>
       </c>
-    </row>
-    <row r="93" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P92" s="2">
+        <v>1603</v>
+      </c>
+      <c r="Q92" s="2">
+        <v>1509</v>
+      </c>
+    </row>
+    <row r="93" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A93" s="3">
         <v>191</v>
       </c>
@@ -16750,8 +18615,14 @@
       <c r="O93" s="2">
         <v>1905</v>
       </c>
-    </row>
-    <row r="94" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P93" s="2">
+        <v>1845</v>
+      </c>
+      <c r="Q93" s="2">
+        <v>1756</v>
+      </c>
+    </row>
+    <row r="94" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A94" s="3">
         <v>193</v>
       </c>
@@ -16797,8 +18668,14 @@
       <c r="O94" s="2">
         <v>631</v>
       </c>
-    </row>
-    <row r="95" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P94" s="2">
+        <v>569</v>
+      </c>
+      <c r="Q94" s="2">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="95" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A95" s="3">
         <v>195</v>
       </c>
@@ -16844,8 +18721,14 @@
       <c r="O95" s="2">
         <v>1051</v>
       </c>
-    </row>
-    <row r="96" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="2">
+        <v>1027</v>
+      </c>
+      <c r="Q95" s="2">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="96" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A96" s="3">
         <v>197</v>
       </c>
@@ -16891,8 +18774,14 @@
       <c r="O96" s="2">
         <v>1579</v>
       </c>
-    </row>
-    <row r="97" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P96" s="2">
+        <v>1591</v>
+      </c>
+      <c r="Q96" s="2">
+        <v>1383</v>
+      </c>
+    </row>
+    <row r="97" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A97" s="3">
         <v>199</v>
       </c>
@@ -16938,8 +18827,14 @@
       <c r="O97" s="2">
         <v>1807</v>
       </c>
-    </row>
-    <row r="98" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P97" s="2">
+        <v>1771</v>
+      </c>
+      <c r="Q97" s="2">
+        <v>1748</v>
+      </c>
+    </row>
+    <row r="98" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A98" s="3">
         <v>510</v>
       </c>
@@ -16985,8 +18880,14 @@
       <c r="O98" s="2">
         <v>6751</v>
       </c>
-    </row>
-    <row r="99" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P98" s="2">
+        <v>6408</v>
+      </c>
+      <c r="Q98" s="2">
+        <v>6306</v>
+      </c>
+    </row>
+    <row r="99" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A99" s="3">
         <v>520</v>
       </c>
@@ -17032,8 +18933,14 @@
       <c r="O99" s="2">
         <v>635</v>
       </c>
-    </row>
-    <row r="100" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P99" s="2">
+        <v>592</v>
+      </c>
+      <c r="Q99" s="2">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="100" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A100" s="3">
         <v>530</v>
       </c>
@@ -17079,8 +18986,14 @@
       <c r="O100" s="2">
         <v>435</v>
       </c>
-    </row>
-    <row r="101" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P100" s="2">
+        <v>366</v>
+      </c>
+      <c r="Q100" s="2">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="101" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A101" s="3">
         <v>540</v>
       </c>
@@ -17126,8 +19039,14 @@
       <c r="O101" s="2">
         <v>3232</v>
       </c>
-    </row>
-    <row r="102" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P101" s="2">
+        <v>3217</v>
+      </c>
+      <c r="Q101" s="2">
+        <v>3209</v>
+      </c>
+    </row>
+    <row r="102" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A102" s="3">
         <v>550</v>
       </c>
@@ -17173,8 +19092,14 @@
       <c r="O102" s="2">
         <v>10449</v>
       </c>
-    </row>
-    <row r="103" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P102" s="2">
+        <v>10345</v>
+      </c>
+      <c r="Q102" s="2">
+        <v>10001</v>
+      </c>
+    </row>
+    <row r="103" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A103" s="3">
         <v>570</v>
       </c>
@@ -17220,8 +19145,14 @@
       <c r="O103" s="2">
         <v>1255</v>
       </c>
-    </row>
-    <row r="104" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P103" s="2">
+        <v>1263</v>
+      </c>
+      <c r="Q103" s="2">
+        <v>1206</v>
+      </c>
+    </row>
+    <row r="104" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A104" s="3">
         <v>580</v>
       </c>
@@ -17267,8 +19198,14 @@
       <c r="O104" s="2">
         <v>624</v>
       </c>
-    </row>
-    <row r="105" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P104" s="2">
+        <v>611</v>
+      </c>
+      <c r="Q104" s="2">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="105" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A105" s="3">
         <v>590</v>
       </c>
@@ -17314,8 +19251,14 @@
       <c r="O105" s="2">
         <v>2896</v>
       </c>
-    </row>
-    <row r="106" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P105" s="2">
+        <v>2830</v>
+      </c>
+      <c r="Q105" s="2">
+        <v>2703</v>
+      </c>
+    </row>
+    <row r="106" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A106" s="3">
         <v>595</v>
       </c>
@@ -17361,8 +19304,14 @@
       <c r="O106" s="2">
         <v>62</v>
       </c>
-    </row>
-    <row r="107" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P106" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q106" s="2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="107" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A107" s="3">
         <v>600</v>
       </c>
@@ -17408,8 +19357,14 @@
       <c r="O107" s="2">
         <v>104</v>
       </c>
-    </row>
-    <row r="108" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P107" s="2">
+        <v>102</v>
+      </c>
+      <c r="Q107" s="2">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="108" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A108" s="3">
         <v>610</v>
       </c>
@@ -17455,8 +19410,14 @@
       <c r="O108" s="2">
         <v>508</v>
       </c>
-    </row>
-    <row r="109" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P108" s="2">
+        <v>487</v>
+      </c>
+      <c r="Q108" s="2">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="109" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A109" s="3">
         <v>620</v>
       </c>
@@ -17502,8 +19463,14 @@
       <c r="O109" s="2">
         <v>513</v>
       </c>
-    </row>
-    <row r="110" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P109" s="2">
+        <v>518</v>
+      </c>
+      <c r="Q109" s="2">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="110" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A110" s="3">
         <v>630</v>
       </c>
@@ -17549,8 +19516,14 @@
       <c r="O110" s="2">
         <v>1646</v>
       </c>
-    </row>
-    <row r="111" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P110" s="2">
+        <v>1655</v>
+      </c>
+      <c r="Q110" s="2">
+        <v>1570</v>
+      </c>
+    </row>
+    <row r="111" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A111" s="3">
         <v>640</v>
       </c>
@@ -17596,8 +19569,14 @@
       <c r="O111" s="2">
         <v>24</v>
       </c>
-    </row>
-    <row r="112" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P111" s="2">
+        <v>31</v>
+      </c>
+      <c r="Q111" s="2">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="112" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A112" s="3">
         <v>650</v>
       </c>
@@ -17643,8 +19622,14 @@
       <c r="O112" s="2">
         <v>7626</v>
       </c>
-    </row>
-    <row r="113" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P112" s="2">
+        <v>7473</v>
+      </c>
+      <c r="Q112" s="2">
+        <v>7390</v>
+      </c>
+    </row>
+    <row r="113" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A113" s="3">
         <v>660</v>
       </c>
@@ -17690,8 +19675,14 @@
       <c r="O113" s="2">
         <v>3303</v>
       </c>
-    </row>
-    <row r="114" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P113" s="2">
+        <v>3140</v>
+      </c>
+      <c r="Q113" s="2">
+        <v>2874</v>
+      </c>
+    </row>
+    <row r="114" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A114" s="3">
         <v>670</v>
       </c>
@@ -17737,8 +19728,14 @@
       <c r="O114" s="2">
         <v>1708</v>
       </c>
-    </row>
-    <row r="115" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P114" s="2">
+        <v>1684</v>
+      </c>
+      <c r="Q114" s="2">
+        <v>1692</v>
+      </c>
+    </row>
+    <row r="115" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A115" s="3">
         <v>678</v>
       </c>
@@ -17784,8 +19781,14 @@
       <c r="O115" s="2">
         <v>22</v>
       </c>
-    </row>
-    <row r="116" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P115" s="2">
+        <v>23</v>
+      </c>
+      <c r="Q115" s="2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="116" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A116" s="3">
         <v>680</v>
       </c>
@@ -17831,8 +19834,14 @@
       <c r="O116" s="2">
         <v>4427</v>
       </c>
-    </row>
-    <row r="117" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P116" s="2">
+        <v>4366</v>
+      </c>
+      <c r="Q116" s="2">
+        <v>4344</v>
+      </c>
+    </row>
+    <row r="117" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A117" s="3">
         <v>683</v>
       </c>
@@ -17878,8 +19887,14 @@
       <c r="O117" s="2">
         <v>2506</v>
       </c>
-    </row>
-    <row r="118" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P117" s="2">
+        <v>2350</v>
+      </c>
+      <c r="Q117" s="2">
+        <v>2324</v>
+      </c>
+    </row>
+    <row r="118" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A118" s="3">
         <v>685</v>
       </c>
@@ -17925,8 +19940,14 @@
       <c r="O118" s="2">
         <v>42</v>
       </c>
-    </row>
-    <row r="119" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P118" s="2">
+        <v>35</v>
+      </c>
+      <c r="Q118" s="2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="119" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A119" s="3">
         <v>690</v>
       </c>
@@ -17972,8 +19993,14 @@
       <c r="O119" s="2">
         <v>139</v>
       </c>
-    </row>
-    <row r="120" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P119" s="2">
+        <v>155</v>
+      </c>
+      <c r="Q119" s="2">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="120" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A120" s="3">
         <v>700</v>
       </c>
@@ -18019,8 +20046,14 @@
       <c r="O120" s="2">
         <v>11879</v>
       </c>
-    </row>
-    <row r="121" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P120" s="2">
+        <v>11792</v>
+      </c>
+      <c r="Q120" s="2">
+        <v>11560</v>
+      </c>
+    </row>
+    <row r="121" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A121" s="3">
         <v>710</v>
       </c>
@@ -18066,8 +20099,14 @@
       <c r="O121" s="2">
         <v>13958</v>
       </c>
-    </row>
-    <row r="122" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P121" s="2">
+        <v>14011</v>
+      </c>
+      <c r="Q121" s="2">
+        <v>13731</v>
+      </c>
+    </row>
+    <row r="122" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A122" s="3">
         <v>720</v>
       </c>
@@ -18113,8 +20152,14 @@
       <c r="O122" s="2">
         <v>211</v>
       </c>
-    </row>
-    <row r="123" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P122" s="2">
+        <v>209</v>
+      </c>
+      <c r="Q122" s="2">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="123" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A123" s="3">
         <v>730</v>
       </c>
@@ -18160,8 +20205,14 @@
       <c r="O123" s="2">
         <v>3854</v>
       </c>
-    </row>
-    <row r="124" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P123" s="2">
+        <v>3813</v>
+      </c>
+      <c r="Q123" s="2">
+        <v>3853</v>
+      </c>
+    </row>
+    <row r="124" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A124" s="3">
         <v>735</v>
       </c>
@@ -18207,8 +20258,14 @@
       <c r="O124" s="2">
         <v>316</v>
       </c>
-    </row>
-    <row r="125" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P124" s="2">
+        <v>321</v>
+      </c>
+      <c r="Q124" s="2">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="125" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A125" s="3">
         <v>740</v>
       </c>
@@ -18254,8 +20311,14 @@
       <c r="O125" s="2">
         <v>5668</v>
       </c>
-    </row>
-    <row r="126" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P125" s="2">
+        <v>5741</v>
+      </c>
+      <c r="Q125" s="2">
+        <v>5692</v>
+      </c>
+    </row>
+    <row r="126" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A126" s="3">
         <v>750</v>
       </c>
@@ -18301,8 +20364,14 @@
       <c r="O126" s="2">
         <v>1026</v>
       </c>
-    </row>
-    <row r="127" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P126" s="2">
+        <v>982</v>
+      </c>
+      <c r="Q126" s="2">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="127" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A127" s="3">
         <v>760</v>
       </c>
@@ -18348,8 +20417,14 @@
       <c r="O127" s="2">
         <v>17921</v>
       </c>
-    </row>
-    <row r="128" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P127" s="2">
+        <v>18018</v>
+      </c>
+      <c r="Q127" s="2">
+        <v>17800</v>
+      </c>
+    </row>
+    <row r="128" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A128" s="3">
         <v>770</v>
       </c>
@@ -18395,8 +20470,14 @@
       <c r="O128" s="2">
         <v>6041</v>
       </c>
-    </row>
-    <row r="129" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P128" s="2">
+        <v>5936</v>
+      </c>
+      <c r="Q128" s="2">
+        <v>5657</v>
+      </c>
+    </row>
+    <row r="129" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A129" s="3">
         <v>775</v>
       </c>
@@ -18442,8 +20523,14 @@
       <c r="O129" s="2">
         <v>1448</v>
       </c>
-    </row>
-    <row r="130" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P129" s="2">
+        <v>1321</v>
+      </c>
+      <c r="Q129" s="2">
+        <v>1268</v>
+      </c>
+    </row>
+    <row r="130" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A130" s="3">
         <v>790</v>
       </c>
@@ -18489,8 +20576,14 @@
       <c r="O130" s="2">
         <v>1620</v>
       </c>
-    </row>
-    <row r="131" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P130" s="2">
+        <v>1607</v>
+      </c>
+      <c r="Q130" s="2">
+        <v>1493</v>
+      </c>
+    </row>
+    <row r="131" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A131" s="3">
         <v>800</v>
       </c>
@@ -18536,8 +20629,14 @@
       <c r="O131" s="2">
         <v>3938</v>
       </c>
-    </row>
-    <row r="132" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P131" s="2">
+        <v>3902</v>
+      </c>
+      <c r="Q131" s="2">
+        <v>3827</v>
+      </c>
+    </row>
+    <row r="132" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A132" s="3">
         <v>810</v>
       </c>
@@ -18583,8 +20682,14 @@
       <c r="O132" s="2">
         <v>21620</v>
       </c>
-    </row>
-    <row r="133" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P132" s="2">
+        <v>20876</v>
+      </c>
+      <c r="Q132" s="2">
+        <v>19974</v>
+      </c>
+    </row>
+    <row r="133" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A133" s="3">
         <v>820</v>
       </c>
@@ -18630,8 +20735,14 @@
       <c r="O133" s="2">
         <v>1403</v>
       </c>
-    </row>
-    <row r="134" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P133" s="2">
+        <v>1355</v>
+      </c>
+      <c r="Q133" s="2">
+        <v>1319</v>
+      </c>
+    </row>
+    <row r="134" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A134" s="3">
         <v>830</v>
       </c>
@@ -18677,8 +20788,14 @@
       <c r="O134" s="2">
         <v>240</v>
       </c>
-    </row>
-    <row r="135" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P134" s="2">
+        <v>252</v>
+      </c>
+      <c r="Q134" s="2">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="135" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A135" s="3">
         <v>840</v>
       </c>
@@ -18724,13 +20841,19 @@
       <c r="O135" s="2">
         <v>1436</v>
       </c>
+      <c r="P135" s="2">
+        <v>1374</v>
+      </c>
+      <c r="Q135" s="2">
+        <v>1292</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A2:O2" xr:uid="{00000000-0009-0000-0000-000006000000}"/>
+  <autoFilter ref="A2:Q2" xr:uid="{00000000-0009-0000-0000-000006000000}"/>
   <mergeCells count="3">
-    <mergeCell ref="Q4:V5"/>
-    <mergeCell ref="Q6:V9"/>
-    <mergeCell ref="A1:N1"/>
+    <mergeCell ref="S4:X5"/>
+    <mergeCell ref="S6:X9"/>
+    <mergeCell ref="A1:Q1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -18740,54 +20863,56 @@
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <sheetPr>
-    <tabColor theme="5" tint="0.79998168889431442"/>
+    <tabColor theme="4" tint="0.79998168889431442"/>
   </sheetPr>
-  <dimension ref="A1:U35"/>
+  <dimension ref="A1:W35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H30" sqref="H30"/>
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="37.83203125" customWidth="1"/>
-    <col min="2" max="9" width="10.83203125" customWidth="1"/>
-    <col min="10" max="10" width="10.83203125" style="18" customWidth="1"/>
-    <col min="11" max="13" width="10.83203125" customWidth="1"/>
-    <col min="14" max="14" width="12.5" customWidth="1"/>
-    <col min="15" max="15" width="5.5" customWidth="1"/>
-    <col min="16" max="16" width="11.33203125" customWidth="1"/>
-    <col min="17" max="18" width="8.5" customWidth="1"/>
-    <col min="19" max="19" width="8.6640625" customWidth="1"/>
-    <col min="20" max="20" width="12.5" customWidth="1"/>
-    <col min="21" max="21" width="3.5" customWidth="1"/>
+    <col min="1" max="1" width="32.33203125" customWidth="1"/>
+    <col min="2" max="9" width="9.1640625" customWidth="1"/>
+    <col min="10" max="10" width="9.1640625" style="18" customWidth="1"/>
+    <col min="11" max="15" width="9.1640625" customWidth="1"/>
+    <col min="16" max="16" width="8.33203125" customWidth="1"/>
+    <col min="17" max="17" width="4.33203125" customWidth="1"/>
+    <col min="18" max="18" width="11.33203125" customWidth="1"/>
+    <col min="19" max="20" width="8.5" customWidth="1"/>
+    <col min="21" max="21" width="8.6640625" customWidth="1"/>
+    <col min="22" max="22" width="12.5" customWidth="1"/>
+    <col min="23" max="23" width="3.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="19" x14ac:dyDescent="0.25">
-      <c r="A1" s="25" t="s">
+    <row r="1" spans="1:23" ht="19" x14ac:dyDescent="0.25">
+      <c r="A1" s="27" t="s">
         <v>220</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
-      <c r="I1" s="25"/>
-      <c r="J1" s="25"/>
-      <c r="K1" s="25"/>
-      <c r="L1" s="25"/>
-      <c r="M1" s="25"/>
-      <c r="N1" s="23"/>
-      <c r="O1" s="8"/>
-      <c r="P1" s="8"/>
-      <c r="Q1" s="8"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="27"/>
+      <c r="J1" s="27"/>
+      <c r="K1" s="27"/>
+      <c r="L1" s="27"/>
+      <c r="M1" s="27"/>
+      <c r="N1" s="27"/>
+      <c r="O1" s="27"/>
+      <c r="P1" s="27"/>
+      <c r="Q1" s="27"/>
       <c r="R1" s="8"/>
       <c r="S1" s="8"/>
       <c r="T1" s="8"/>
-    </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="U1" s="8"/>
+      <c r="V1" s="8"/>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>41</v>
       </c>
@@ -18830,17 +20955,23 @@
       <c r="N2" s="11" t="s">
         <v>238</v>
       </c>
-      <c r="O2" s="7"/>
-      <c r="P2" s="1" t="s">
+      <c r="O2" s="11" t="s">
+        <v>239</v>
+      </c>
+      <c r="P2" s="11" t="s">
+        <v>240</v>
+      </c>
+      <c r="Q2" s="11"/>
+      <c r="R2" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="Q2" s="1"/>
-      <c r="R2" s="1"/>
       <c r="S2" s="1"/>
       <c r="T2" s="1"/>
       <c r="U2" s="1"/>
-    </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V2" s="1"/>
+      <c r="W2" s="1"/>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -18883,17 +21014,23 @@
       <c r="N3" s="2">
         <v>5004</v>
       </c>
-      <c r="O3" s="2"/>
-      <c r="P3" s="1" t="s">
+      <c r="O3" s="2">
+        <v>4777</v>
+      </c>
+      <c r="P3" s="2">
+        <v>4673</v>
+      </c>
+      <c r="Q3" s="3"/>
+      <c r="R3" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="Q3" s="1"/>
-      <c r="R3" s="1"/>
       <c r="S3" s="1"/>
       <c r="T3" s="1"/>
       <c r="U3" s="1"/>
-    </row>
-    <row r="4" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V3" s="1"/>
+      <c r="W3" s="1"/>
+    </row>
+    <row r="4" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
@@ -18936,17 +21073,23 @@
       <c r="N4" s="2">
         <v>14200</v>
       </c>
-      <c r="O4" s="2"/>
-      <c r="P4" s="27" t="s">
+      <c r="O4" s="2">
+        <v>13710</v>
+      </c>
+      <c r="P4" s="2">
+        <v>12842</v>
+      </c>
+      <c r="Q4" s="3"/>
+      <c r="R4" s="29" t="s">
         <v>219</v>
       </c>
-      <c r="Q4" s="27"/>
-      <c r="R4" s="27"/>
-      <c r="S4" s="27"/>
-      <c r="T4" s="27"/>
-      <c r="U4" s="10"/>
-    </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="S4" s="29"/>
+      <c r="T4" s="29"/>
+      <c r="U4" s="29"/>
+      <c r="V4" s="29"/>
+      <c r="W4" s="10"/>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
@@ -18989,17 +21132,23 @@
       <c r="N5" s="2">
         <v>14859</v>
       </c>
-      <c r="O5" s="2"/>
-      <c r="P5" s="27" t="s">
+      <c r="O5" s="2">
+        <v>14016</v>
+      </c>
+      <c r="P5" s="2">
+        <v>13361</v>
+      </c>
+      <c r="Q5" s="3"/>
+      <c r="R5" s="29" t="s">
         <v>185</v>
       </c>
-      <c r="Q5" s="27"/>
-      <c r="R5" s="27"/>
-      <c r="S5" s="27"/>
-      <c r="T5" s="27"/>
-      <c r="U5" s="27"/>
-    </row>
-    <row r="6" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S5" s="29"/>
+      <c r="T5" s="29"/>
+      <c r="U5" s="29"/>
+      <c r="V5" s="29"/>
+      <c r="W5" s="29"/>
+    </row>
+    <row r="6" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
@@ -19042,15 +21191,21 @@
       <c r="N6" s="2">
         <v>21927</v>
       </c>
-      <c r="O6" s="2"/>
-      <c r="P6" s="27"/>
-      <c r="Q6" s="27"/>
-      <c r="R6" s="27"/>
-      <c r="S6" s="27"/>
-      <c r="T6" s="27"/>
-      <c r="U6" s="27"/>
-    </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="O6" s="2">
+        <v>20837</v>
+      </c>
+      <c r="P6" s="2">
+        <v>19431</v>
+      </c>
+      <c r="Q6" s="3"/>
+      <c r="R6" s="29"/>
+      <c r="S6" s="29"/>
+      <c r="T6" s="29"/>
+      <c r="U6" s="29"/>
+      <c r="V6" s="29"/>
+      <c r="W6" s="29"/>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>7</v>
       </c>
@@ -19093,15 +21248,21 @@
       <c r="N7" s="2">
         <v>17086</v>
       </c>
-      <c r="O7" s="2"/>
-      <c r="P7" s="27"/>
-      <c r="Q7" s="27"/>
-      <c r="R7" s="27"/>
-      <c r="S7" s="27"/>
-      <c r="T7" s="27"/>
-      <c r="U7" s="27"/>
-    </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="O7" s="2">
+        <v>16566</v>
+      </c>
+      <c r="P7" s="2">
+        <v>16094</v>
+      </c>
+      <c r="Q7" s="3"/>
+      <c r="R7" s="29"/>
+      <c r="S7" s="29"/>
+      <c r="T7" s="29"/>
+      <c r="U7" s="29"/>
+      <c r="V7" s="29"/>
+      <c r="W7" s="29"/>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>8</v>
       </c>
@@ -19144,15 +21305,21 @@
       <c r="N8" s="2">
         <v>9149</v>
       </c>
-      <c r="O8" s="2"/>
-      <c r="P8" s="27"/>
-      <c r="Q8" s="27"/>
-      <c r="R8" s="27"/>
-      <c r="S8" s="27"/>
-      <c r="T8" s="27"/>
-      <c r="U8" s="27"/>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="O8" s="2">
+        <v>9108</v>
+      </c>
+      <c r="P8" s="2">
+        <v>8860</v>
+      </c>
+      <c r="Q8" s="3"/>
+      <c r="R8" s="29"/>
+      <c r="S8" s="29"/>
+      <c r="T8" s="29"/>
+      <c r="U8" s="29"/>
+      <c r="V8" s="29"/>
+      <c r="W8" s="29"/>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>9</v>
       </c>
@@ -19195,9 +21362,15 @@
       <c r="N9" s="2">
         <v>5808</v>
       </c>
-      <c r="O9" s="2"/>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="O9" s="2">
+        <v>5709</v>
+      </c>
+      <c r="P9" s="2">
+        <v>5630</v>
+      </c>
+      <c r="Q9" s="3"/>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>6</v>
       </c>
@@ -19240,9 +21413,15 @@
       <c r="N10" s="2">
         <v>55264</v>
       </c>
-      <c r="O10" s="2"/>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="O10" s="2">
+        <v>54758</v>
+      </c>
+      <c r="P10" s="2">
+        <v>53287</v>
+      </c>
+      <c r="Q10" s="3"/>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>10</v>
       </c>
@@ -19285,9 +21464,15 @@
       <c r="N11" s="2">
         <v>94122</v>
       </c>
-      <c r="O11" s="2"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="O11" s="2">
+        <v>89433</v>
+      </c>
+      <c r="P11" s="2">
+        <v>86994</v>
+      </c>
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>11</v>
       </c>
@@ -19330,9 +21515,15 @@
       <c r="N12" s="2">
         <v>13146</v>
       </c>
-      <c r="O12" s="2"/>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="O12" s="2">
+        <v>12296</v>
+      </c>
+      <c r="P12" s="2">
+        <v>12109</v>
+      </c>
+      <c r="Q12" s="3"/>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>12</v>
       </c>
@@ -19375,9 +21566,15 @@
       <c r="N13" s="2">
         <v>20490</v>
       </c>
-      <c r="O13" s="2"/>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="O13" s="2">
+        <v>19575</v>
+      </c>
+      <c r="P13" s="2">
+        <v>18971</v>
+      </c>
+      <c r="Q13" s="3"/>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>13</v>
       </c>
@@ -19420,9 +21617,15 @@
       <c r="N14" s="2">
         <v>28615</v>
       </c>
-      <c r="O14" s="2"/>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="O14" s="2">
+        <v>28211</v>
+      </c>
+      <c r="P14" s="2">
+        <v>27673</v>
+      </c>
+      <c r="Q14" s="3"/>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>14</v>
       </c>
@@ -19465,9 +21668,15 @@
       <c r="N15" s="2">
         <v>9685</v>
       </c>
-      <c r="O15" s="2"/>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="O15" s="2">
+        <v>9605</v>
+      </c>
+      <c r="P15" s="2">
+        <v>9536</v>
+      </c>
+      <c r="Q15" s="3"/>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>15</v>
       </c>
@@ -19510,9 +21719,15 @@
       <c r="N16" s="2">
         <v>57643</v>
       </c>
-      <c r="O16" s="2"/>
-    </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="O16" s="2">
+        <v>56872</v>
+      </c>
+      <c r="P16" s="2">
+        <v>55187</v>
+      </c>
+      <c r="Q16" s="3"/>
+    </row>
+    <row r="17" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>16</v>
       </c>
@@ -19555,16 +21770,22 @@
       <c r="N17" s="2">
         <v>8460</v>
       </c>
-      <c r="O17" s="2"/>
-    </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="P20" s="2"/>
-      <c r="Q20" s="2"/>
+      <c r="O17" s="2">
+        <v>8119</v>
+      </c>
+      <c r="P17" s="2">
+        <v>7770</v>
+      </c>
+      <c r="Q17" s="3"/>
+    </row>
+    <row r="20" spans="1:22" x14ac:dyDescent="0.2">
       <c r="R20" s="2"/>
       <c r="S20" s="2"/>
       <c r="T20" s="2"/>
-    </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U20" s="2"/>
+      <c r="V20" s="2"/>
+    </row>
+    <row r="21" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -19585,8 +21806,10 @@
       <c r="R21" s="2"/>
       <c r="S21" s="2"/>
       <c r="T21" s="2"/>
-    </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U21" s="2"/>
+      <c r="V21" s="2"/>
+    </row>
+    <row r="22" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
@@ -19607,8 +21830,10 @@
       <c r="R22" s="2"/>
       <c r="S22" s="2"/>
       <c r="T22" s="2"/>
-    </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U22" s="2"/>
+      <c r="V22" s="2"/>
+    </row>
+    <row r="23" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
@@ -19629,8 +21854,10 @@
       <c r="R23" s="2"/>
       <c r="S23" s="2"/>
       <c r="T23" s="2"/>
-    </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U23" s="2"/>
+      <c r="V23" s="2"/>
+    </row>
+    <row r="24" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
@@ -19651,8 +21878,10 @@
       <c r="R24" s="2"/>
       <c r="S24" s="2"/>
       <c r="T24" s="2"/>
-    </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U24" s="2"/>
+      <c r="V24" s="2"/>
+    </row>
+    <row r="25" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
@@ -19673,8 +21902,10 @@
       <c r="R25" s="2"/>
       <c r="S25" s="2"/>
       <c r="T25" s="2"/>
-    </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="2"/>
+      <c r="V25" s="2"/>
+    </row>
+    <row r="26" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
@@ -19695,8 +21926,10 @@
       <c r="R26" s="2"/>
       <c r="S26" s="2"/>
       <c r="T26" s="2"/>
-    </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U26" s="2"/>
+      <c r="V26" s="2"/>
+    </row>
+    <row r="27" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
@@ -19717,8 +21950,10 @@
       <c r="R27" s="2"/>
       <c r="S27" s="2"/>
       <c r="T27" s="2"/>
-    </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U27" s="2"/>
+      <c r="V27" s="2"/>
+    </row>
+    <row r="28" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
@@ -19739,8 +21974,10 @@
       <c r="R28" s="2"/>
       <c r="S28" s="2"/>
       <c r="T28" s="2"/>
-    </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="2"/>
+      <c r="V28" s="2"/>
+    </row>
+    <row r="29" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
@@ -19761,8 +21998,10 @@
       <c r="R29" s="2"/>
       <c r="S29" s="2"/>
       <c r="T29" s="2"/>
-    </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U29" s="2"/>
+      <c r="V29" s="2"/>
+    </row>
+    <row r="30" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
@@ -19783,8 +22022,10 @@
       <c r="R30" s="2"/>
       <c r="S30" s="2"/>
       <c r="T30" s="2"/>
-    </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="2"/>
+      <c r="V30" s="2"/>
+    </row>
+    <row r="31" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
@@ -19805,8 +22046,10 @@
       <c r="R31" s="2"/>
       <c r="S31" s="2"/>
       <c r="T31" s="2"/>
-    </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="2"/>
+      <c r="V31" s="2"/>
+    </row>
+    <row r="32" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A32" s="2"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
@@ -19827,8 +22070,10 @@
       <c r="R32" s="2"/>
       <c r="S32" s="2"/>
       <c r="T32" s="2"/>
-    </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U32" s="2"/>
+      <c r="V32" s="2"/>
+    </row>
+    <row r="33" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A33" s="2"/>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
@@ -19849,8 +22094,10 @@
       <c r="R33" s="2"/>
       <c r="S33" s="2"/>
       <c r="T33" s="2"/>
-    </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U33" s="2"/>
+      <c r="V33" s="2"/>
+    </row>
+    <row r="34" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A34" s="2"/>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
@@ -19871,8 +22118,10 @@
       <c r="R34" s="2"/>
       <c r="S34" s="2"/>
       <c r="T34" s="2"/>
-    </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="2"/>
+      <c r="V34" s="2"/>
+    </row>
+    <row r="35" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A35" s="2"/>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
@@ -19888,13 +22137,15 @@
       <c r="M35" s="2"/>
       <c r="N35" s="2"/>
       <c r="O35" s="2"/>
+      <c r="P35" s="2"/>
+      <c r="Q35" s="2"/>
     </row>
   </sheetData>
-  <autoFilter ref="A2:N2" xr:uid="{00000000-0009-0000-0000-000007000000}"/>
+  <autoFilter ref="A2:P2" xr:uid="{00000000-0009-0000-0000-000007000000}"/>
   <mergeCells count="3">
-    <mergeCell ref="P5:U8"/>
-    <mergeCell ref="P4:T4"/>
-    <mergeCell ref="A1:M1"/>
+    <mergeCell ref="R5:W8"/>
+    <mergeCell ref="R4:V4"/>
+    <mergeCell ref="A1:Q1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
